--- a/data/fig3/QEShift_FC.xlsx
+++ b/data/fig3/QEShift_FC.xlsx
@@ -476,7 +476,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1606195321082139</v>
+        <v>-0.1606195321082146</v>
       </c>
       <c r="E2" t="n">
         <v>-0.1616851667943391</v>
@@ -492,7 +492,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3189639037328857</v>
+        <v>0.3189639037328827</v>
       </c>
       <c r="D3" t="n">
         <v>-0.01926733665043666</v>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.077859141883045</v>
+        <v>-1.077859141883044</v>
       </c>
       <c r="D4" t="n">
         <v>0.2361812103716673</v>
@@ -549,7 +549,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09262770516613551</v>
+        <v>0.09262770516613071</v>
       </c>
       <c r="D6" t="n">
         <v>0.3664578185901907</v>
@@ -568,7 +568,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.09267621100029624</v>
+        <v>-0.09267621100029556</v>
       </c>
       <c r="D7" t="n">
         <v>-0.06164519447283213</v>
@@ -587,7 +587,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04099419396951529</v>
+        <v>0.04099419396951125</v>
       </c>
       <c r="D8" t="n">
         <v>0.09810863301370522</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.07182898724857902</v>
+        <v>-0.07182898724857935</v>
       </c>
       <c r="D9" t="n">
         <v>-0.07187347609312005</v>
@@ -625,7 +625,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05562295424655857</v>
+        <v>0.05562295424655241</v>
       </c>
       <c r="D10" t="n">
         <v>0.1915530279334177</v>
@@ -644,7 +644,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01278654438500395</v>
+        <v>0.01278654438500426</v>
       </c>
       <c r="D11" t="n">
         <v>1.176811502265301</v>
@@ -663,7 +663,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.08986968136661826</v>
+        <v>-0.08986968136661859</v>
       </c>
       <c r="D12" t="n">
         <v>-0.2437257038464141</v>
@@ -682,7 +682,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1229600190622449</v>
+        <v>0.1229600190622396</v>
       </c>
       <c r="D13" t="n">
         <v>0.2396244343473367</v>
@@ -701,7 +701,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2413504538680767</v>
+        <v>-0.2413504538680769</v>
       </c>
       <c r="D14" t="n">
         <v>-8.904735427743663</v>
@@ -720,7 +720,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2722311444003945</v>
+        <v>-0.2722311444003943</v>
       </c>
       <c r="D15" t="n">
         <v>-0.1043537740424026</v>
@@ -755,7 +755,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2343749935565503</v>
+        <v>-0.2343749935565509</v>
       </c>
       <c r="D17" t="n">
         <v>-0.3542291939246697</v>
@@ -774,7 +774,7 @@
         <v>-0.3770696490798233</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2522124228250255</v>
+        <v>-0.2522124228250263</v>
       </c>
       <c r="D18" t="n">
         <v>-3.392105621346583</v>
@@ -793,7 +793,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.005203019503057961</v>
+        <v>-0.00520301950305764</v>
       </c>
       <c r="D19" t="n">
         <v>0.01531057540695832</v>
@@ -812,7 +812,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C20" t="n">
-        <v>4.089285375521422</v>
+        <v>4.089285375521427</v>
       </c>
       <c r="D20" t="n">
         <v>0.09616890720062532</v>
@@ -831,7 +831,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C21" t="n">
-        <v>0.008888463374129244</v>
+        <v>0.008888463374133383</v>
       </c>
       <c r="D21" t="n">
         <v>0.456695110418679</v>
@@ -850,7 +850,7 @@
         <v>-0.3584539709124763</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.3341433283637342</v>
+        <v>-0.3341433283637332</v>
       </c>
       <c r="D22" t="n">
         <v>-0.3562477672058284</v>
@@ -869,7 +869,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.7739060261963447</v>
+        <v>-0.7739060261963444</v>
       </c>
       <c r="E23" t="n">
         <v>0.1134027376960232</v>
@@ -885,7 +885,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1454271438887561</v>
+        <v>-0.1454271438887558</v>
       </c>
       <c r="D24" t="n">
         <v>0.01356473307869821</v>
@@ -904,7 +904,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2038732439174891</v>
+        <v>0.203873243917493</v>
       </c>
       <c r="D25" t="n">
         <v>-0.06848641013250306</v>
@@ -923,7 +923,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.06627791148419521</v>
+        <v>-0.06627791148419571</v>
       </c>
       <c r="D26" t="n">
         <v>0.07103565848845944</v>
@@ -942,7 +942,7 @@
         <v>0.3561438102252754</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4914887871642242</v>
+        <v>0.4914887871642195</v>
       </c>
       <c r="D27" t="n">
         <v>0.7109988234544152</v>
@@ -961,7 +961,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C28" t="n">
-        <v>7.192765394515424</v>
+        <v>7.192765394515421</v>
       </c>
       <c r="D28" t="n">
         <v>0.1476639754503111</v>
@@ -980,7 +980,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0193526529180784</v>
+        <v>0.01935265291808093</v>
       </c>
       <c r="D29" t="n">
         <v>2.292140782647309</v>
@@ -999,7 +999,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C30" t="n">
-        <v>1.28871407790823</v>
+        <v>1.288714077908229</v>
       </c>
       <c r="D30" t="n">
         <v>-0.006834056471962544</v>
@@ -1018,7 +1018,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.08700976628401333</v>
+        <v>-0.08700976628401298</v>
       </c>
       <c r="D31" t="n">
         <v>-0.0924469400503637</v>
@@ -1037,7 +1037,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04007535132698059</v>
+        <v>0.04007535132697997</v>
       </c>
       <c r="D32" t="n">
         <v>0.03868239407455573</v>
@@ -1056,7 +1056,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.03955911445660512</v>
+        <v>-0.03955911445660562</v>
       </c>
       <c r="D33" t="n">
         <v>-3.547737993896065</v>
@@ -1075,7 +1075,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.2207145118734601</v>
+        <v>-0.2207145118734597</v>
       </c>
       <c r="D34" t="n">
         <v>-0.8100010815099459</v>
@@ -1094,7 +1094,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1020361513544028</v>
+        <v>-0.1020361513544024</v>
       </c>
       <c r="D35" t="n">
         <v>-0.02977478484098731</v>
@@ -1113,7 +1113,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.6391842404554341</v>
+        <v>-0.6391842404554335</v>
       </c>
       <c r="D36" t="n">
         <v>0.1201134353916684</v>
@@ -1132,7 +1132,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.08874103732862711</v>
+        <v>-0.08874103732862762</v>
       </c>
       <c r="D37" t="n">
         <v>-0.2768097902245473</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.007384566750227305</v>
+        <v>0.007384566750222205</v>
       </c>
       <c r="D38" t="n">
         <v>-0.1345649752431984</v>
@@ -1170,7 +1170,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C39" t="n">
-        <v>0.09860734358782512</v>
+        <v>0.09860734358782153</v>
       </c>
       <c r="D39" t="n">
         <v>0.08960223189848907</v>
@@ -1189,7 +1189,7 @@
         <v>-0.2863041851566411</v>
       </c>
       <c r="C40" t="n">
-        <v>5.005389484358838</v>
+        <v>5.00538948435884</v>
       </c>
       <c r="D40" t="n">
         <v>-0.3861712446240961</v>
@@ -1208,7 +1208,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08623418402845835</v>
+        <v>0.08623418402845293</v>
       </c>
       <c r="D41" t="n">
         <v>0.353689780327169</v>
@@ -1265,7 +1265,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.04469434729115071</v>
+        <v>-0.0446943472911512</v>
       </c>
       <c r="D44" t="n">
         <v>0.1304238355958538</v>
@@ -1284,7 +1284,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.0763662640494174</v>
+        <v>-0.07636626404941775</v>
       </c>
       <c r="D45" t="n">
         <v>-0.0642493375344641</v>
@@ -1303,7 +1303,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01186975830665701</v>
+        <v>0.01186975830665542</v>
       </c>
       <c r="E46" t="n">
         <v>0.01760615297906532</v>
@@ -1319,7 +1319,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1489098917991006</v>
+        <v>-0.1489098917991003</v>
       </c>
       <c r="D47" t="n">
         <v>-0.764558691829147</v>
@@ -1338,7 +1338,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.04218360340389109</v>
+        <v>-0.04218360340389142</v>
       </c>
       <c r="D48" t="n">
         <v>-0.02221072662045752</v>
@@ -1357,7 +1357,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.0357060980212322</v>
+        <v>-0.03570609802123154</v>
       </c>
       <c r="D49" t="n">
         <v>-0.00925704225950242</v>
@@ -1376,7 +1376,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.03694312416511919</v>
+        <v>-0.03694312416511952</v>
       </c>
       <c r="D50" t="n">
         <v>-0.4320760577669855</v>
@@ -1395,7 +1395,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1463708643372038</v>
+        <v>0.1463708643372047</v>
       </c>
       <c r="D51" t="n">
         <v>0.1725444003145192</v>
@@ -1414,7 +1414,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.1281751925342321</v>
+        <v>-0.1281751925342319</v>
       </c>
       <c r="D52" t="n">
         <v>0.6101749034755417</v>
@@ -1433,7 +1433,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.1202646184072615</v>
+        <v>-0.1202646184072619</v>
       </c>
       <c r="D53" t="n">
         <v>-0.3878921909330409</v>
@@ -1471,7 +1471,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.1383962712998224</v>
+        <v>-0.1383962712998221</v>
       </c>
       <c r="D55" t="n">
         <v>-0.1432322731962659</v>
@@ -1490,7 +1490,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.4001881137118767</v>
+        <v>-0.4001881137118776</v>
       </c>
       <c r="D56" t="n">
         <v>-0.03763395657249637</v>
@@ -1509,7 +1509,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.004117566808660145</v>
+        <v>-0.004117566808660466</v>
       </c>
       <c r="D57" t="n">
         <v>0.2656500630065996</v>
@@ -1528,7 +1528,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.02456117647873604</v>
+        <v>-0.02456117647873669</v>
       </c>
       <c r="D58" t="n">
         <v>0.01923218672550556</v>
@@ -1547,7 +1547,7 @@
         <v>-0.2515387669959644</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.2857932947376586</v>
+        <v>-0.2857932947376596</v>
       </c>
       <c r="D59" t="n">
         <v>-0.260521169986956</v>
@@ -1566,7 +1566,7 @@
         <v>-0.2688167584278</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.1411460938686228</v>
+        <v>-0.1411460938686225</v>
       </c>
       <c r="D60" t="n">
         <v>-0.1133171042334239</v>
@@ -1585,7 +1585,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C61" t="n">
-        <v>0.004780871791142032</v>
+        <v>0.004780871791135646</v>
       </c>
       <c r="E61" t="n">
         <v>0.04170501905746445</v>
@@ -1601,7 +1601,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.105676236353271</v>
+        <v>-0.1056762363532707</v>
       </c>
       <c r="E62" t="n">
         <v>-0.104348374882784</v>
@@ -1617,7 +1617,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1007568602479495</v>
+        <v>0.1007568602479471</v>
       </c>
       <c r="D63" t="n">
         <v>-0.07013692983530634</v>
@@ -1636,7 +1636,7 @@
         <v>-0.2863041851566411</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.08870028488672418</v>
+        <v>-0.0887002848867247</v>
       </c>
       <c r="D64" t="n">
         <v>0.0005580927742344102</v>
@@ -1655,7 +1655,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C65" t="n">
-        <v>0.02866750935565353</v>
+        <v>0.02866750935565227</v>
       </c>
       <c r="D65" t="n">
         <v>0.03044248273342057</v>
@@ -1674,7 +1674,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.02434718135661115</v>
+        <v>-0.02434718135661147</v>
       </c>
       <c r="D66" t="n">
         <v>-0.007114895005121402</v>
@@ -1693,7 +1693,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.0007456063724024068</v>
+        <v>-0.0007456063724020863</v>
       </c>
       <c r="D67" t="n">
         <v>0.1747602716819848</v>
@@ -1712,7 +1712,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08593057767559353</v>
+        <v>0.08593057767559595</v>
       </c>
       <c r="E68" t="n">
         <v>0.07838251574221963</v>
@@ -1728,7 +1728,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4097398477185021</v>
+        <v>0.4097398477185007</v>
       </c>
       <c r="D69" t="n">
         <v>0.3731292416768685</v>
@@ -1747,7 +1747,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.07457986072917018</v>
+        <v>-0.07457986072916967</v>
       </c>
       <c r="D70" t="n">
         <v>0.05334474250399884</v>
@@ -1766,7 +1766,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08831562339360198</v>
+        <v>0.088315623393608</v>
       </c>
       <c r="D71" t="n">
         <v>0.1088399382034915</v>
@@ -1785,7 +1785,7 @@
         <v>-0.4941090702700427</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.5681977286826497</v>
+        <v>-0.5681977286826499</v>
       </c>
       <c r="D72" t="n">
         <v>-0.5356488072728836</v>
@@ -1823,7 +1823,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.159167964706454</v>
+        <v>-0.1591679647064546</v>
       </c>
       <c r="E74" t="n">
         <v>-0.161697691249224</v>
@@ -1839,7 +1839,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.3519063631491556</v>
+        <v>-0.351906363149155</v>
       </c>
       <c r="D75" t="n">
         <v>0.02035664772416864</v>
@@ -1858,7 +1858,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2767940111618709</v>
+        <v>0.2767940111618732</v>
       </c>
       <c r="D76" t="n">
         <v>0.2285106572158664</v>
@@ -1877,7 +1877,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.002793435642605088</v>
+        <v>-0.002793435642604446</v>
       </c>
       <c r="D77" t="n">
         <v>0.01022493539248169</v>
@@ -1896,7 +1896,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.06423743510297318</v>
+        <v>-0.06423743510297285</v>
       </c>
       <c r="D78" t="n">
         <v>-0.4790203288369067</v>
@@ -1934,7 +1934,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.05442010105568301</v>
+        <v>-0.05442010105568234</v>
       </c>
       <c r="D80" t="n">
         <v>0.2634304331635366</v>
@@ -1953,7 +1953,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.1155967808494481</v>
+        <v>-0.1155967808494477</v>
       </c>
       <c r="D81" t="n">
         <v>-0.08739062257257192</v>
@@ -1991,7 +1991,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C83" t="n">
-        <v>0.06802573144268943</v>
+        <v>0.06802573144269494</v>
       </c>
       <c r="D83" t="n">
         <v>0.001765142915141344</v>
@@ -2010,7 +2010,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0006690870551720623</v>
+        <v>0.0006690870551749441</v>
       </c>
       <c r="D84" t="n">
         <v>-0.05935633091602363</v>
@@ -2029,7 +2029,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.08019122082353369</v>
+        <v>-0.08019122082353303</v>
       </c>
       <c r="D85" t="n">
         <v>-0.3226794856501586</v>
@@ -2048,7 +2048,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C86" t="n">
-        <v>0.153995766470255</v>
+        <v>0.1539957664702493</v>
       </c>
       <c r="D86" t="n">
         <v>1.336077252565323</v>
@@ -2067,7 +2067,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.03854303012925002</v>
+        <v>-0.03854303012925051</v>
       </c>
       <c r="D87" t="n">
         <v>0.03797958512255135</v>
@@ -2105,7 +2105,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.1874528415842408</v>
+        <v>-0.1874528415842406</v>
       </c>
       <c r="D89" t="n">
         <v>-0.03876878802638675</v>
@@ -2124,7 +2124,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.09514337489740754</v>
+        <v>-0.09514337489740721</v>
       </c>
       <c r="D90" t="n">
         <v>0.04774128351452948</v>
@@ -2143,7 +2143,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C91" t="n">
-        <v>0.02920649847249872</v>
+        <v>0.02920649847250406</v>
       </c>
       <c r="D91" t="n">
         <v>-0.1077889117500767</v>
@@ -2162,7 +2162,7 @@
         <v>0.2986583155645152</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2360998407570462</v>
+        <v>0.2360998407570451</v>
       </c>
       <c r="D92" t="n">
         <v>1.164111211893955</v>
@@ -2181,7 +2181,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.1783312797949761</v>
+        <v>-0.1783312797949767</v>
       </c>
       <c r="D93" t="n">
         <v>-0.156510971185477</v>
@@ -2200,7 +2200,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.0935103518992222</v>
+        <v>-0.09351035189922187</v>
       </c>
       <c r="D94" t="n">
         <v>-0.09318034930433768</v>
@@ -2219,7 +2219,7 @@
         <v>-0.4941090702700427</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.2403053383668312</v>
+        <v>-0.2403053383668303</v>
       </c>
       <c r="D95" t="n">
         <v>-0.4478052255832604</v>
@@ -2238,7 +2238,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.3794909071978733</v>
+        <v>-0.3794909071978724</v>
       </c>
       <c r="D96" t="n">
         <v>-0.02629301058718699</v>
@@ -2257,7 +2257,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.06334362738973903</v>
+        <v>-0.06334362738973837</v>
       </c>
       <c r="D97" t="n">
         <v>-1.2100152534612</v>
@@ -2276,7 +2276,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C98" t="n">
-        <v>0.01196587100878511</v>
+        <v>0.01196587100879115</v>
       </c>
       <c r="D98" t="n">
         <v>0.7222423111260482</v>
@@ -2327,7 +2327,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.01538797293780695</v>
+        <v>-0.01538797293780679</v>
       </c>
       <c r="D101" t="n">
         <v>-0.05110914636522876</v>
@@ -2346,7 +2346,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C102" t="n">
-        <v>0.02467899116913835</v>
+        <v>0.02467899116914465</v>
       </c>
       <c r="D102" t="n">
         <v>0.04085829305581706</v>
@@ -2365,7 +2365,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.3704993919218321</v>
+        <v>-0.3704993919218327</v>
       </c>
       <c r="E103" t="n">
         <v>0.1580030494997691</v>
@@ -2400,7 +2400,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1242630245096083</v>
+        <v>0.1242630245096057</v>
       </c>
       <c r="D105" t="n">
         <v>-0.09789969840812442</v>
@@ -2438,7 +2438,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C107" t="n">
-        <v>0.03626354398677152</v>
+        <v>0.03626354398677808</v>
       </c>
       <c r="D107" t="n">
         <v>7.412688464341866</v>
@@ -2457,7 +2457,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.1996625564359727</v>
+        <v>-0.1996625564359725</v>
       </c>
       <c r="D108" t="n">
         <v>-0.1776572409028588</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.02285325859488279</v>
+        <v>-0.0228532585948823</v>
       </c>
       <c r="D109" t="n">
         <v>-0.003161760639328273</v>
@@ -2495,7 +2495,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C110" t="n">
-        <v>-3.02179975674381</v>
+        <v>-3.021799756743809</v>
       </c>
       <c r="D110" t="n">
         <v>-0.424457462966</v>
@@ -2514,7 +2514,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C111" t="n">
-        <v>0.02803999971060069</v>
+        <v>0.02803999971060477</v>
       </c>
       <c r="D111" t="n">
         <v>0.2120058366435067</v>
@@ -2568,7 +2568,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.1474410965558857</v>
+        <v>-0.1474410965558864</v>
       </c>
       <c r="D114" t="n">
         <v>-0.2103962079847876</v>
@@ -2587,7 +2587,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.02550188681938505</v>
+        <v>-0.02550188681938537</v>
       </c>
       <c r="D115" t="n">
         <v>0.2235404830650452</v>
@@ -2606,7 +2606,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9761934597937333</v>
+        <v>0.9761934597937357</v>
       </c>
       <c r="D116" t="n">
         <v>-0.05319232089686103</v>
@@ -2625,7 +2625,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.03901735330030949</v>
+        <v>-0.03901735330031015</v>
       </c>
       <c r="D117" t="n">
         <v>-0.2197751094268622</v>
@@ -2644,7 +2644,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C118" t="n">
-        <v>0.189230888878361</v>
+        <v>0.1892308888783621</v>
       </c>
       <c r="D118" t="n">
         <v>0.007170518573884741</v>
@@ -2682,7 +2682,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.02762362884293415</v>
+        <v>-0.02762362884293448</v>
       </c>
       <c r="D120" t="n">
         <v>-0.2741789470875123</v>
@@ -2701,7 +2701,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C121" t="n">
-        <v>0.07784431308221666</v>
+        <v>0.07784431308221029</v>
       </c>
       <c r="D121" t="n">
         <v>0.1663589553734795</v>
@@ -2720,7 +2720,7 @@
         <v>-0.2515387669959644</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.2374443872580953</v>
+        <v>-0.2374443872580961</v>
       </c>
       <c r="D122" t="n">
         <v>-0.211285355386444</v>
@@ -2739,7 +2739,7 @@
         <v>-0.2009126939259964</v>
       </c>
       <c r="C123" t="n">
-        <v>0.07748356660039485</v>
+        <v>0.0774835666003906</v>
       </c>
       <c r="E123" t="n">
         <v>-0.1721274540262209</v>
@@ -2755,7 +2755,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C124" t="n">
-        <v>0.01659380428629043</v>
+        <v>0.01659380428629486</v>
       </c>
       <c r="D124" t="n">
         <v>0.1191703193254464</v>
@@ -2774,7 +2774,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6970192158894597</v>
+        <v>0.6970192158894569</v>
       </c>
       <c r="E125" t="n">
         <v>-0.01682782997111435</v>
@@ -2790,7 +2790,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C126" t="n">
-        <v>0.05303574896891244</v>
+        <v>0.0530357489689112</v>
       </c>
       <c r="D126" t="n">
         <v>0.07242369950114788</v>
@@ -2809,7 +2809,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C127" t="n">
-        <v>0.07984727467798081</v>
+        <v>0.07984727467797444</v>
       </c>
       <c r="D127" t="n">
         <v>0.007532680653174996</v>
@@ -2828,7 +2828,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C128" t="n">
-        <v>0.02129565152537788</v>
+        <v>0.02129565152538451</v>
       </c>
       <c r="D128" t="n">
         <v>0.06945862272454748</v>
@@ -2847,7 +2847,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.09639204437058332</v>
+        <v>-0.09639204437058316</v>
       </c>
       <c r="D129" t="n">
         <v>-0.1543206023501512</v>
@@ -2866,7 +2866,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.06290540573056531</v>
+        <v>-0.06290540573056565</v>
       </c>
       <c r="D130" t="n">
         <v>-0.05640655335472496</v>
@@ -2885,7 +2885,7 @@
         <v>0.5160151470036647</v>
       </c>
       <c r="C131" t="n">
-        <v>0.4547660639918583</v>
+        <v>0.454766063991858</v>
       </c>
       <c r="D131" t="n">
         <v>5.59156020471841</v>
@@ -2904,7 +2904,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C132" t="n">
-        <v>2.017154379595723</v>
+        <v>2.017154379595725</v>
       </c>
       <c r="D132" t="n">
         <v>-0.08974343971476695</v>
@@ -2923,7 +2923,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.001067126029175806</v>
+        <v>-0.001067126029175967</v>
       </c>
       <c r="D133" t="n">
         <v>0.2895270084181105</v>
@@ -2942,7 +2942,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1076102239951215</v>
+        <v>0.1076102239951185</v>
       </c>
       <c r="D134" t="n">
         <v>-0.00104213874599971</v>
@@ -2980,7 +2980,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C136" t="n">
-        <v>0.05096514777325126</v>
+        <v>0.05096514777324817</v>
       </c>
       <c r="D136" t="n">
         <v>0.08557653775427367</v>
@@ -2999,7 +2999,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C137" t="n">
-        <v>0.01220472025966813</v>
+        <v>0.0122047202596694</v>
       </c>
       <c r="D137" t="n">
         <v>-0.2904935001439387</v>
@@ -3018,7 +3018,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C138" t="n">
-        <v>5.566501309148725</v>
+        <v>5.566501309148726</v>
       </c>
       <c r="D138" t="n">
         <v>1.074447750778186</v>
@@ -3037,7 +3037,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.3999586984650131</v>
+        <v>-0.399958698465013</v>
       </c>
       <c r="D139" t="n">
         <v>0.3433879208392999</v>
@@ -3056,7 +3056,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0906476617901612</v>
+        <v>0.09064766179016301</v>
       </c>
       <c r="D140" t="n">
         <v>0.04760345434284461</v>
@@ -3075,7 +3075,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.122901017282736</v>
+        <v>-0.1229010172827356</v>
       </c>
       <c r="E141" t="n">
         <v>-0.0375273210647214</v>
@@ -3091,7 +3091,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C142" t="n">
-        <v>0.03814945378817427</v>
+        <v>0.03814945378818083</v>
       </c>
       <c r="D142" t="n">
         <v>-0.5054131404198774</v>
@@ -3129,7 +3129,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C144" t="n">
-        <v>0.09685380654543073</v>
+        <v>0.09685380654542475</v>
       </c>
       <c r="D144" t="n">
         <v>-0.03146327759882358</v>
@@ -3167,7 +3167,7 @@
         <v>-0.2009126939259964</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.08846790362033637</v>
+        <v>-0.0884679036203367</v>
       </c>
       <c r="D146" t="n">
         <v>0.4056519211472612</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.05692134908450076</v>
+        <v>-0.05692134908450109</v>
       </c>
       <c r="D147" t="n">
         <v>-0.1404670451164262</v>
@@ -3224,7 +3224,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C149" t="n">
-        <v>-2.553361690064066</v>
+        <v>-2.553361690064067</v>
       </c>
       <c r="D149" t="n">
         <v>0.5593865646960952</v>
@@ -3243,14 +3243,11 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C150" t="n">
-        <v>0.03881924889052788</v>
+        <v>0.03881924889053193</v>
       </c>
       <c r="D150" t="n">
         <v>-0.02862085783155742</v>
       </c>
-      <c r="E150" t="n">
-        <v>-0.03107437706110833</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3281,7 +3278,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C152" t="n">
-        <v>0.09376982785958972</v>
+        <v>0.09376982785959362</v>
       </c>
       <c r="D152" t="n">
         <v>0.0176544376086588</v>
@@ -3300,7 +3297,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.07522333396184101</v>
+        <v>-0.07522333396184067</v>
       </c>
       <c r="D153" t="n">
         <v>-1.009239621171628</v>
@@ -3319,7 +3316,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.07075292438240925</v>
+        <v>-0.07075292438240892</v>
       </c>
       <c r="D154" t="n">
         <v>-0.2059524713851806</v>
@@ -3354,7 +3351,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C156" t="n">
-        <v>0.122242170402742</v>
+        <v>0.1222421704027423</v>
       </c>
       <c r="D156" t="n">
         <v>0.1655115552222531</v>
@@ -3373,7 +3370,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C157" t="n">
-        <v>0.01501975201185528</v>
+        <v>0.01501975201184894</v>
       </c>
       <c r="E157" t="n">
         <v>0.01588395861514101</v>
@@ -3389,7 +3386,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.08376740481767175</v>
+        <v>-0.08376740481767141</v>
       </c>
       <c r="D158" t="n">
         <v>-0.130142610831683</v>
@@ -3408,7 +3405,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.06693164745191986</v>
+        <v>-0.06693164745191918</v>
       </c>
       <c r="D159" t="n">
         <v>-0.0323511109150928</v>
@@ -3427,7 +3424,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.08738654870105877</v>
+        <v>-0.08738654870105911</v>
       </c>
       <c r="D160" t="n">
         <v>-0.1126294778462354</v>
@@ -3446,7 +3443,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C161" t="n">
-        <v>0.0177613649892727</v>
+        <v>0.01776136498927143</v>
       </c>
       <c r="D161" t="n">
         <v>0.04304587849015319</v>
@@ -3465,7 +3462,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.776243541638435</v>
+        <v>-0.7762435416384345</v>
       </c>
       <c r="D162" t="n">
         <v>-0.1153164399112845</v>
@@ -3484,7 +3481,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C163" t="n">
-        <v>0.2248157028483136</v>
+        <v>0.2248157028483079</v>
       </c>
       <c r="D163" t="n">
         <v>0.5654171742055392</v>
@@ -3503,7 +3500,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.09475775007282553</v>
+        <v>-0.09475775007282519</v>
       </c>
       <c r="D164" t="n">
         <v>-0.1313604822292353</v>
@@ -3522,7 +3519,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C165" t="n">
-        <v>0.05634315486546876</v>
+        <v>0.0563431548654743</v>
       </c>
       <c r="D165" t="n">
         <v>-0.08191554077325668</v>
@@ -3541,7 +3538,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.05962654110316491</v>
+        <v>-0.05962654110316557</v>
       </c>
       <c r="D166" t="n">
         <v>-0.07745456220570197</v>
@@ -3560,7 +3557,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.1535672515175844</v>
+        <v>-0.1535672515175849</v>
       </c>
       <c r="D167" t="n">
         <v>-0.02094649470682887</v>
@@ -3598,7 +3595,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C169" t="n">
-        <v>0.05862482865822358</v>
+        <v>0.05862482865822234</v>
       </c>
       <c r="D169" t="n">
         <v>0.09369257418351834</v>
@@ -3617,7 +3614,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.2215198555824821</v>
+        <v>-0.2215198555824817</v>
       </c>
       <c r="D170" t="n">
         <v>-0.2636113593432878</v>
@@ -3636,7 +3633,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.5433825673008745</v>
+        <v>-0.5433825673008754</v>
       </c>
       <c r="D171" t="n">
         <v>-1.144288294234727</v>
@@ -3655,7 +3652,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C172" t="n">
-        <v>0.3480935471878517</v>
+        <v>0.3480935471878565</v>
       </c>
       <c r="D172" t="n">
         <v>0.08112329453556774</v>
@@ -3674,7 +3671,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C173" t="n">
-        <v>0.01814862924208462</v>
+        <v>0.01814862924207988</v>
       </c>
       <c r="E173" t="n">
         <v>0.01842381429054185</v>
@@ -3690,7 +3687,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C174" t="n">
-        <v>0.3461603953133904</v>
+        <v>0.3461603953133932</v>
       </c>
       <c r="D174" t="n">
         <v>0.1353285369568375</v>
@@ -3725,7 +3722,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.09974928078502587</v>
+        <v>-0.09974928078502639</v>
       </c>
       <c r="D176" t="n">
         <v>-0.527313036907862</v>
@@ -3744,7 +3741,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.1140388722064783</v>
+        <v>-0.1140388722064786</v>
       </c>
       <c r="D177" t="n">
         <v>-0.1699743066397333</v>
@@ -3763,7 +3760,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.1112292095500614</v>
+        <v>-0.1112292095500621</v>
       </c>
       <c r="D178" t="n">
         <v>-0.1653159931767067</v>
@@ -3782,7 +3779,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.06636278066377138</v>
+        <v>-0.06636278066377171</v>
       </c>
       <c r="D179" t="n">
         <v>-0.04611917281245792</v>
@@ -3801,7 +3798,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9644895776107882</v>
+        <v>0.9644895776107906</v>
       </c>
       <c r="D180" t="n">
         <v>2.395623419339943</v>
@@ -3820,7 +3817,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.06700185393036216</v>
+        <v>-0.0670018539303625</v>
       </c>
       <c r="D181" t="n">
         <v>-0.04151436462160678</v>
@@ -3839,7 +3836,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.06954648447145145</v>
+        <v>-0.06954648447145112</v>
       </c>
       <c r="D182" t="n">
         <v>-0.739062785707288</v>
@@ -3877,7 +3874,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.01987586472383011</v>
+        <v>-0.01987586472382946</v>
       </c>
       <c r="D184" t="n">
         <v>-0.06272859983885924</v>
@@ -3896,7 +3893,7 @@
         <v>-0.2863041851566411</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.2222152523582376</v>
+        <v>-0.2222152523582374</v>
       </c>
       <c r="D185" t="n">
         <v>-2.571445974214987</v>
@@ -3915,7 +3912,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C186" t="n">
-        <v>0.05681280052273221</v>
+        <v>0.05681280052273467</v>
       </c>
       <c r="D186" t="n">
         <v>0.05846211799408862</v>
@@ -3934,7 +3931,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.0834508915461656</v>
+        <v>-0.08345089154616492</v>
       </c>
       <c r="D187" t="n">
         <v>4.055103569324151</v>
@@ -3953,7 +3950,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C188" t="n">
-        <v>0.02704649454036152</v>
+        <v>0.02704649454035617</v>
       </c>
       <c r="E188" t="n">
         <v>0.02595356492112751</v>
@@ -3969,7 +3966,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.02410825880115297</v>
+        <v>-0.02410825880115249</v>
       </c>
       <c r="D189" t="n">
         <v>0.1833559414501173</v>
@@ -3988,7 +3985,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C190" t="n">
-        <v>0.03270275697394717</v>
+        <v>0.03270275697394341</v>
       </c>
       <c r="D190" t="n">
         <v>-10.34352701262257</v>
@@ -4026,7 +4023,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.05341593952833308</v>
+        <v>-0.05341593952833275</v>
       </c>
       <c r="D192" t="n">
         <v>-0.1941575839811479</v>
@@ -4064,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.07555660716451448</v>
+        <v>-0.07555660716451483</v>
       </c>
       <c r="D194" t="n">
         <v>0.6647825310652345</v>
@@ -4102,7 +4099,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C196" t="n">
-        <v>0.1008053163688335</v>
+        <v>0.1008053163688272</v>
       </c>
       <c r="D196" t="n">
         <v>-0.117234166530878</v>
@@ -4121,7 +4118,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C197" t="n">
-        <v>0.0530439259784709</v>
+        <v>0.05304392597847584</v>
       </c>
       <c r="D197" t="n">
         <v>0.05391189898889839</v>
@@ -4159,7 +4156,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.1578942703269109</v>
+        <v>-0.1578942703269113</v>
       </c>
       <c r="D199" t="n">
         <v>-0.2016084538850144</v>
@@ -4178,7 +4175,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C200" t="n">
-        <v>0.06796583845512941</v>
+        <v>0.06796583845512605</v>
       </c>
       <c r="D200" t="n">
         <v>0.0997578226906489</v>
@@ -4197,7 +4194,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1227887276342623</v>
+        <v>0.1227887276342608</v>
       </c>
       <c r="D201" t="n">
         <v>0.4645873580619584</v>
@@ -4216,7 +4213,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C202" t="n">
-        <v>1.310881852720639</v>
+        <v>1.310881852720642</v>
       </c>
       <c r="D202" t="n">
         <v>-8.75312777557741</v>
@@ -4235,7 +4232,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.004807385457613338</v>
+        <v>-0.004807385457614142</v>
       </c>
       <c r="E203" t="n">
         <v>-0.005785965011062878</v>
@@ -4251,7 +4248,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C204" t="n">
-        <v>0.1497633436109288</v>
+        <v>0.1497633436109314</v>
       </c>
       <c r="D204" t="n">
         <v>0.05051690983036541</v>
@@ -4270,7 +4267,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C205" t="n">
-        <v>0.04916319486863387</v>
+        <v>0.04916319486863697</v>
       </c>
       <c r="D205" t="n">
         <v>-0.181179749063839</v>
@@ -4289,7 +4286,7 @@
         <v>-0.4941090702700427</v>
       </c>
       <c r="C206" t="n">
-        <v>0.692798740990753</v>
+        <v>0.6927987409907532</v>
       </c>
       <c r="D206" t="n">
         <v>0.7326174513469348</v>
@@ -4327,7 +4324,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C208" t="n">
-        <v>0.1578584366558185</v>
+        <v>0.1578584366558147</v>
       </c>
       <c r="E208" t="n">
         <v>0.170425402782</v>
@@ -4343,7 +4340,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C209" t="n">
-        <v>0.02877793417135972</v>
+        <v>0.028777934171366</v>
       </c>
       <c r="E209" t="n">
         <v>0.02274533105831148</v>
@@ -4359,7 +4356,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.09276985752897293</v>
+        <v>-0.09276985752897361</v>
       </c>
       <c r="D210" t="n">
         <v>-0.1735426853824906</v>
@@ -4378,7 +4375,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C211" t="n">
-        <v>0.01874000668846128</v>
+        <v>0.01874000668846665</v>
       </c>
       <c r="D211" t="n">
         <v>0.8815662573606617</v>
@@ -4397,7 +4394,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C212" t="n">
-        <v>0.03703208949076215</v>
+        <v>0.03703208949076309</v>
       </c>
       <c r="E212" t="n">
         <v>0.03074535156344194</v>
@@ -4413,7 +4410,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C213" t="n">
-        <v>0.07139415323498965</v>
+        <v>0.07139415323498935</v>
       </c>
       <c r="D213" t="n">
         <v>0.03253040643465164</v>
@@ -4432,7 +4429,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.1830450375926786</v>
+        <v>-0.183045037592678</v>
       </c>
       <c r="D214" t="n">
         <v>-0.3022502780093836</v>
@@ -4451,7 +4448,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.1104680609630979</v>
+        <v>-0.1104680609630982</v>
       </c>
       <c r="D215" t="n">
         <v>0.387673152628535</v>
@@ -4470,7 +4467,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C216" t="n">
-        <v>0.02251882649192706</v>
+        <v>0.02251882649192422</v>
       </c>
       <c r="D216" t="n">
         <v>0.02440472806234147</v>
@@ -4489,7 +4486,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.2221570522126875</v>
+        <v>-0.2221570522126873</v>
       </c>
       <c r="D217" t="n">
         <v>-0.1252983403524512</v>
@@ -4508,7 +4505,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C218" t="n">
-        <v>0.08207224806175617</v>
+        <v>0.08207224806175102</v>
       </c>
       <c r="D218" t="n">
         <v>-0.04711246882952101</v>
@@ -4527,7 +4524,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C219" t="n">
-        <v>0.02657348509966816</v>
+        <v>0.02657348509967068</v>
       </c>
       <c r="D219" t="n">
         <v>-0.3265841332989607</v>
@@ -4546,7 +4543,7 @@
         <v>0.5558161550616397</v>
       </c>
       <c r="C220" t="n">
-        <v>0.6705286832462248</v>
+        <v>0.6705286832462244</v>
       </c>
       <c r="D220" t="n">
         <v>0.4648629342416372</v>
@@ -4565,10 +4562,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C221" t="n">
-        <v>0.08739401202197369</v>
-      </c>
-      <c r="E221" t="n">
-        <v>0.03161936315865196</v>
+        <v>0.08739401202196947</v>
       </c>
     </row>
     <row r="222">
@@ -4581,7 +4575,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C222" t="n">
-        <v>0.02337391985486661</v>
+        <v>0.02337391985486314</v>
       </c>
       <c r="D222" t="n">
         <v>-0.1311655993237461</v>
@@ -4600,7 +4594,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C223" t="n">
-        <v>0.1160528956369159</v>
+        <v>0.1160528956369106</v>
       </c>
       <c r="D223" t="n">
         <v>0.06219623965936875</v>
@@ -4619,7 +4613,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.009162303196150287</v>
+        <v>-0.009162303196149642</v>
       </c>
       <c r="D224" t="n">
         <v>0.8493298863501859</v>
@@ -4638,7 +4632,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C225" t="n">
-        <v>-0.3454184096215899</v>
+        <v>-0.3454184096215905</v>
       </c>
       <c r="D225" t="n">
         <v>-0.1365328166548334</v>
@@ -4657,7 +4651,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C226" t="n">
-        <v>0.0461883570039889</v>
+        <v>0.04618835700398424</v>
       </c>
       <c r="D226" t="n">
         <v>-0.0919894792888156</v>
@@ -4676,7 +4670,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.1178791506884312</v>
+        <v>-0.1178791506884308</v>
       </c>
       <c r="D227" t="n">
         <v>-0.1677277679097308</v>
@@ -4695,7 +4689,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C228" t="n">
-        <v>-2.779475889482167</v>
+        <v>-2.779475889482166</v>
       </c>
       <c r="D228" t="n">
         <v>-0.02737020139694613</v>
@@ -4714,7 +4708,7 @@
         <v>-0.2515387669959644</v>
       </c>
       <c r="C229" t="n">
-        <v>0.005914831797697425</v>
+        <v>0.005914831797693915</v>
       </c>
       <c r="D229" t="n">
         <v>-0.2302837982306636</v>
@@ -4733,7 +4727,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C230" t="n">
-        <v>0.09052222237887651</v>
+        <v>0.09052222237887532</v>
       </c>
       <c r="D230" t="n">
         <v>0.5999891707255994</v>
@@ -4752,7 +4746,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C231" t="n">
-        <v>0.02402273671399199</v>
+        <v>0.02402273671399451</v>
       </c>
       <c r="E231" t="n">
         <v>0.02582542506581482</v>
@@ -4768,7 +4762,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C232" t="n">
-        <v>0.07637552660967531</v>
+        <v>0.07637552660966923</v>
       </c>
       <c r="D232" t="n">
         <v>0.1779830175451188</v>
@@ -4787,7 +4781,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.2206159070311264</v>
+        <v>-0.2206159070311262</v>
       </c>
       <c r="D233" t="n">
         <v>-0.01711516444282939</v>
@@ -4822,7 +4816,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.1104192895115626</v>
+        <v>-0.1104192895115634</v>
       </c>
       <c r="D235" t="n">
         <v>0.2961818005417309</v>
@@ -4841,7 +4835,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C236" t="n">
-        <v>0.4570092106115376</v>
+        <v>0.457009210611539</v>
       </c>
       <c r="D236" t="n">
         <v>0.2816994555270076</v>
@@ -4860,7 +4854,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.1909677904257466</v>
+        <v>-0.1909677904257461</v>
       </c>
       <c r="D237" t="n">
         <v>-0.4193901220375398</v>
@@ -4879,7 +4873,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C238" t="n">
-        <v>0.009644620528959114</v>
+        <v>0.009644620528962932</v>
       </c>
       <c r="E238" t="n">
         <v>0.03285952786828453</v>
@@ -4895,7 +4889,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.1297252602799303</v>
+        <v>-0.1297252602799306</v>
       </c>
       <c r="D239" t="n">
         <v>-0.2004011290981478</v>
@@ -4914,7 +4908,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C240" t="n">
-        <v>0.2866629827065344</v>
+        <v>0.286662982706531</v>
       </c>
       <c r="D240" t="n">
         <v>0.1169074733031045</v>
@@ -4933,7 +4927,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.2478902002741155</v>
+        <v>-0.247890200274115</v>
       </c>
       <c r="E241" t="n">
         <v>0.03232259092722868</v>
@@ -4949,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.04366390450037778</v>
+        <v>-0.04366390450037844</v>
       </c>
       <c r="D242" t="n">
         <v>-0.192159959124086</v>
@@ -4968,7 +4962,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C243" t="n">
-        <v>0.2459470653453225</v>
+        <v>0.245947065345319</v>
       </c>
       <c r="D243" t="n">
         <v>-1.071542485385832</v>
@@ -4987,7 +4981,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C244" t="n">
-        <v>0.1352922178886233</v>
+        <v>0.1352922178886274</v>
       </c>
       <c r="D244" t="n">
         <v>-0.1143186317060298</v>
@@ -5025,14 +5019,11 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C246" t="n">
-        <v>0.01834372526373619</v>
+        <v>0.01834372526374031</v>
       </c>
       <c r="D246" t="n">
         <v>-0.02446012898031378</v>
       </c>
-      <c r="E246" t="n">
-        <v>0.01617004541680006</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -5044,7 +5035,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.2902542990676981</v>
+        <v>-0.2902542990676987</v>
       </c>
       <c r="D247" t="n">
         <v>0.1556628556720832</v>
@@ -5063,7 +5054,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C248" t="n">
-        <v>0.1060360206856845</v>
+        <v>0.1060360206856868</v>
       </c>
       <c r="D248" t="n">
         <v>0.1638421427089662</v>
@@ -5082,7 +5073,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.08073831210031535</v>
+        <v>-0.08073831210031467</v>
       </c>
       <c r="D249" t="n">
         <v>-0.0699590900797237</v>
@@ -5120,7 +5111,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C251" t="n">
-        <v>-0.04486752216528993</v>
+        <v>-0.0448675221652901</v>
       </c>
       <c r="D251" t="n">
         <v>0.03238410005261572</v>
@@ -5139,7 +5130,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.05263452381236047</v>
+        <v>-0.0526345238123608</v>
       </c>
       <c r="D252" t="n">
         <v>-0.1080443860187385</v>
@@ -5158,7 +5149,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C253" t="n">
-        <v>0.1838780448594266</v>
+        <v>0.1838780448594221</v>
       </c>
       <c r="D253" t="n">
         <v>0.5153105154130757</v>
@@ -5177,14 +5168,11 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.1081340510041877</v>
+        <v>-0.1081340510041873</v>
       </c>
       <c r="D254" t="n">
         <v>-0.1334525317619447</v>
       </c>
-      <c r="E254" t="n">
-        <v>-1.08074604426523</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -5196,7 +5184,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C255" t="n">
-        <v>0.05198803958040809</v>
+        <v>0.05198803958041025</v>
       </c>
       <c r="D255" t="n">
         <v>0.1707782472708742</v>
@@ -5215,7 +5203,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.1515510623050124</v>
+        <v>-0.1515510623050117</v>
       </c>
       <c r="D256" t="n">
         <v>0.02081504155288305</v>
@@ -5234,7 +5222,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C257" t="n">
-        <v>0.1264526823459503</v>
+        <v>0.126452682345952</v>
       </c>
       <c r="D257" t="n">
         <v>0.07601713245027172</v>
@@ -5253,7 +5241,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C258" t="n">
-        <v>0.09340132973462435</v>
+        <v>0.09340132973462105</v>
       </c>
       <c r="D258" t="n">
         <v>0.05240293576207021</v>
@@ -5272,7 +5260,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C259" t="n">
-        <v>-3.276511532118745</v>
+        <v>-3.276511532118746</v>
       </c>
       <c r="D259" t="n">
         <v>-8.865318541637855</v>
@@ -5291,7 +5279,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.1603438497366457</v>
+        <v>-0.1603438497366451</v>
       </c>
       <c r="D260" t="n">
         <v>-0.1116383369926665</v>
@@ -5310,7 +5298,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C261" t="n">
-        <v>-0.2993733921584211</v>
+        <v>-0.2993733921584213</v>
       </c>
       <c r="D261" t="n">
         <v>-0.3781724846411478</v>
@@ -5329,7 +5317,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C262" t="n">
-        <v>0.1139334516671389</v>
+        <v>0.1139334516671386</v>
       </c>
       <c r="E262" t="n">
         <v>0.06913712214040778</v>
@@ -5345,7 +5333,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.1383106313155306</v>
+        <v>-0.1383106313155309</v>
       </c>
       <c r="D263" t="n">
         <v>0.3627272952470437</v>
@@ -5364,7 +5352,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.1203787724093003</v>
+        <v>-0.1203787724092999</v>
       </c>
       <c r="D264" t="n">
         <v>-0.06093871490690115</v>
@@ -5383,7 +5371,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C265" t="n">
-        <v>0.08835780627096212</v>
+        <v>0.08835780627095821</v>
       </c>
       <c r="D265" t="n">
         <v>0.2255067890036186</v>
@@ -5402,7 +5390,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C266" t="n">
-        <v>0.07312720468695774</v>
+        <v>0.07312720468696231</v>
       </c>
       <c r="D266" t="n">
         <v>0.06619383675663683</v>
@@ -5421,7 +5409,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.1462705685657041</v>
+        <v>-0.1462705685657044</v>
       </c>
       <c r="D267" t="n">
         <v>-0.09877550970489384</v>
@@ -5440,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>0.1277444417765187</v>
+        <v>0.1277444417765175</v>
       </c>
       <c r="D268" t="n">
         <v>0.6468142350491775</v>
@@ -5459,7 +5447,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.03538095784072787</v>
+        <v>-0.0353809578407282</v>
       </c>
       <c r="D269" t="n">
         <v>-0.0373058189009764</v>
@@ -5478,7 +5466,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C270" t="n">
-        <v>0.36408908458319</v>
+        <v>0.3640890845831895</v>
       </c>
       <c r="D270" t="n">
         <v>0.0407965908719812</v>
@@ -5516,7 +5504,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C272" t="n">
-        <v>0.008201170019008202</v>
+        <v>0.008201170019012025</v>
       </c>
       <c r="D272" t="n">
         <v>0.1129279251723625</v>
@@ -5535,7 +5523,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C273" t="n">
-        <v>-0.258498833951273</v>
+        <v>-0.2584988339512734</v>
       </c>
       <c r="D273" t="n">
         <v>-0.9997870696909656</v>
@@ -5554,7 +5542,7 @@
         <v>-0.3040061868900999</v>
       </c>
       <c r="C274" t="n">
-        <v>0.1284882055928594</v>
+        <v>0.1284882055928565</v>
       </c>
       <c r="D274" t="n">
         <v>0.02220954848600789</v>
@@ -5573,7 +5561,7 @@
         <v>-0.2009126939259964</v>
       </c>
       <c r="C275" t="n">
-        <v>-0.1267925306477702</v>
+        <v>-0.1267925306477695</v>
       </c>
       <c r="D275" t="n">
         <v>-0.0239393556514303</v>
@@ -5592,7 +5580,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C276" t="n">
-        <v>-0.08111514684050779</v>
+        <v>-0.08111514684050711</v>
       </c>
       <c r="D276" t="n">
         <v>-0.1465343239813721</v>
@@ -5611,7 +5599,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C277" t="n">
-        <v>0.0399463649182813</v>
+        <v>0.03994636491828753</v>
       </c>
       <c r="D277" t="n">
         <v>-0.4070513032427381</v>
@@ -5649,7 +5637,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C279" t="n">
-        <v>-0.006035927748934018</v>
+        <v>-0.00603592774893434</v>
       </c>
       <c r="D279" t="n">
         <v>0.2988603978726708</v>
@@ -5668,7 +5656,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C280" t="n">
-        <v>0.001845951798868683</v>
+        <v>0.001845951798871562</v>
       </c>
       <c r="E280" t="n">
         <v>-0.04340024434285292</v>
@@ -5684,7 +5672,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C281" t="n">
-        <v>-0.06148827582297025</v>
+        <v>-0.06148827582297092</v>
       </c>
       <c r="D281" t="n">
         <v>0.01967777882838094</v>
@@ -5703,7 +5691,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C282" t="n">
-        <v>-0.1326870619937172</v>
+        <v>-0.1326870619937176</v>
       </c>
       <c r="D282" t="n">
         <v>-0.09861722798003476</v>
@@ -5722,7 +5710,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C283" t="n">
-        <v>0.09625680026607429</v>
+        <v>0.09625680026608088</v>
       </c>
       <c r="E283" t="n">
         <v>0.3854609513555944</v>
@@ -5738,7 +5726,7 @@
         <v>-0.2009126939259964</v>
       </c>
       <c r="C284" t="n">
-        <v>-0.3884145003212575</v>
+        <v>-0.3884145003212573</v>
       </c>
       <c r="D284" t="n">
         <v>-0.03415347985265604</v>
@@ -5757,7 +5745,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C285" t="n">
-        <v>-0.09401496652435584</v>
+        <v>-0.09401496652435516</v>
       </c>
       <c r="D285" t="n">
         <v>-0.06794498869137189</v>
@@ -5776,7 +5764,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C286" t="n">
-        <v>-0.0228739061261255</v>
+        <v>-0.02287390612612582</v>
       </c>
       <c r="D286" t="n">
         <v>-1.131742760622005</v>
@@ -5795,7 +5783,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C287" t="n">
-        <v>-0.3357380242389948</v>
+        <v>-0.335738024238995</v>
       </c>
       <c r="E287" t="n">
         <v>-0.00800296159227421</v>
@@ -5811,7 +5799,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C288" t="n">
-        <v>-0.1488301522868066</v>
+        <v>-0.1488301522868071</v>
       </c>
       <c r="D288" t="n">
         <v>-0.3223724474607415</v>
@@ -5830,7 +5818,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C289" t="n">
-        <v>-0.003786167477526352</v>
+        <v>-0.003786167477526995</v>
       </c>
       <c r="E289" t="n">
         <v>0.1035490487105725</v>
@@ -5846,7 +5834,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C290" t="n">
-        <v>0.1026191718653779</v>
+        <v>0.10261917186538</v>
       </c>
       <c r="D290" t="n">
         <v>-0.08158565233338735</v>
@@ -5865,7 +5853,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C291" t="n">
-        <v>0.08470194734122251</v>
+        <v>0.08470194734121798</v>
       </c>
       <c r="D291" t="n">
         <v>-0.4948154724739029</v>
@@ -5884,7 +5872,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C292" t="n">
-        <v>0.001884996121869012</v>
+        <v>0.001884996121863254</v>
       </c>
       <c r="D292" t="n">
         <v>0.002580067961677301</v>
@@ -5903,7 +5891,7 @@
         <v>-0.2515387669959644</v>
       </c>
       <c r="C293" t="n">
-        <v>-0.4569008991511539</v>
+        <v>-0.4569008991511531</v>
       </c>
       <c r="D293" t="n">
         <v>-0.3720229365107314</v>
@@ -5941,7 +5929,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C295" t="n">
-        <v>-0.01862404741468583</v>
+        <v>-0.01862404741468648</v>
       </c>
       <c r="D295" t="n">
         <v>-0.06251230833829073</v>
@@ -5960,7 +5948,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C296" t="n">
-        <v>0.2899318773427623</v>
+        <v>0.2899318773427608</v>
       </c>
       <c r="E296" t="n">
         <v>0.311358282018296</v>
@@ -5976,7 +5964,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C297" t="n">
-        <v>0.01293053542720321</v>
+        <v>0.01293053542720099</v>
       </c>
       <c r="D297" t="n">
         <v>0.1948753628823477</v>
@@ -5995,7 +5983,7 @@
         <v>-0.4941090702700427</v>
       </c>
       <c r="C298" t="n">
-        <v>-0.4824357675259344</v>
+        <v>-0.4824357675259346</v>
       </c>
       <c r="D298" t="n">
         <v>-0.4563642662896677</v>
@@ -6014,7 +6002,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C299" t="n">
-        <v>0.04820017384708189</v>
+        <v>0.04820017384708405</v>
       </c>
       <c r="D299" t="n">
         <v>-0.09038827549548203</v>
@@ -6033,7 +6021,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C300" t="n">
-        <v>0.08463074333318234</v>
+        <v>0.08463074333318536</v>
       </c>
       <c r="D300" t="n">
         <v>0.2068235058085232</v>
@@ -6052,7 +6040,7 @@
         <v>-0.3770696490798233</v>
       </c>
       <c r="C301" t="n">
-        <v>-0.3027175786768311</v>
+        <v>-0.3027175786768309</v>
       </c>
       <c r="D301" t="n">
         <v>-0.4038560387204565</v>
@@ -6071,7 +6059,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C302" t="n">
-        <v>-0.07899700540089437</v>
+        <v>-0.0789970054008947</v>
       </c>
       <c r="D302" t="n">
         <v>-0.2043137027700544</v>
@@ -6090,7 +6078,7 @@
         <v>-0.3770696490798233</v>
       </c>
       <c r="C303" t="n">
-        <v>-0.4724666586899827</v>
+        <v>-0.4724666586899836</v>
       </c>
       <c r="D303" t="n">
         <v>-0.3535950249055219</v>
@@ -6128,7 +6116,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C305" t="n">
-        <v>0.1332794046552619</v>
+        <v>0.133279404655256</v>
       </c>
       <c r="D305" t="n">
         <v>0.3569090698161133</v>
@@ -6147,7 +6135,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C306" t="n">
-        <v>0.2860297466054841</v>
+        <v>0.2860297466054821</v>
       </c>
       <c r="D306" t="n">
         <v>-9.673837788423276</v>
@@ -6185,7 +6173,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C308" t="n">
-        <v>0.05070253173320517</v>
+        <v>0.0507025317332027</v>
       </c>
       <c r="D308" t="n">
         <v>0.03141115928183136</v>
@@ -6204,7 +6192,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C309" t="n">
-        <v>0.06464125200350203</v>
+        <v>0.06464125200350325</v>
       </c>
       <c r="D309" t="n">
         <v>0.04145598159314789</v>
@@ -6223,7 +6211,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C310" t="n">
-        <v>-0.0501081928136849</v>
+        <v>-0.05010819281368457</v>
       </c>
       <c r="D310" t="n">
         <v>-0.06743401488121828</v>
@@ -6242,7 +6230,7 @@
         <v>-0.4739311883324124</v>
       </c>
       <c r="C311" t="n">
-        <v>-0.4732339553437923</v>
+        <v>-0.4732339553437916</v>
       </c>
       <c r="D311" t="n">
         <v>-0.4954440405918191</v>
@@ -6261,7 +6249,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C312" t="n">
-        <v>0.2700065345939127</v>
+        <v>0.2700065345939179</v>
       </c>
       <c r="D312" t="n">
         <v>0.2686649641171431</v>
@@ -6280,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>0.02319613905030205</v>
+        <v>0.02319613905030362</v>
       </c>
       <c r="D313" t="n">
         <v>-0.04134076171270563</v>
@@ -6299,7 +6287,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C314" t="n">
-        <v>0.05302062132998221</v>
+        <v>0.05302062132998715</v>
       </c>
       <c r="D314" t="n">
         <v>0.04034472051552895</v>
@@ -6318,7 +6306,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C315" t="n">
-        <v>-0.09801021847337488</v>
+        <v>-0.09801021847337453</v>
       </c>
       <c r="D315" t="n">
         <v>-0.138782924398871</v>
@@ -6337,7 +6325,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C316" t="n">
-        <v>0.001210924228292931</v>
+        <v>0.001210924228292291</v>
       </c>
       <c r="D316" t="n">
         <v>0.007225438901020047</v>
@@ -6356,7 +6344,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C317" t="n">
-        <v>0.09146496657292578</v>
+        <v>0.09146496657293089</v>
       </c>
       <c r="D317" t="n">
         <v>-2.585517297165299</v>
@@ -6375,7 +6363,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C318" t="n">
-        <v>0.1518281046594769</v>
+        <v>0.1518281046594798</v>
       </c>
       <c r="D318" t="n">
         <v>0.2148280213802876</v>
@@ -6394,7 +6382,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C319" t="n">
-        <v>-0.05037058361565525</v>
+        <v>-0.05037058361565557</v>
       </c>
       <c r="D319" t="n">
         <v>13.87498645379003</v>
@@ -6413,7 +6401,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C320" t="n">
-        <v>0.06771738709644326</v>
+        <v>0.06771738709643746</v>
       </c>
       <c r="D320" t="n">
         <v>0.04512340078748325</v>
@@ -6432,7 +6420,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C321" t="n">
-        <v>-0.04118618174738784</v>
+        <v>-0.04118618174738817</v>
       </c>
       <c r="D321" t="n">
         <v>0.02386083013096331</v>
@@ -6451,7 +6439,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C322" t="n">
-        <v>0.09670265213338768</v>
+        <v>0.09670265213338319</v>
       </c>
       <c r="D322" t="n">
         <v>-0.01652791347928824</v>
@@ -6470,7 +6458,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C323" t="n">
-        <v>-0.05778881054588891</v>
+        <v>-0.05778881054588957</v>
       </c>
       <c r="D323" t="n">
         <v>0.01731326855539071</v>
@@ -6489,7 +6477,7 @@
         <v>-0.3040061868900999</v>
       </c>
       <c r="C324" t="n">
-        <v>-0.2280865620190264</v>
+        <v>-0.2280865620190266</v>
       </c>
       <c r="D324" t="n">
         <v>-0.3643404420863391</v>
@@ -6508,7 +6496,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C325" t="n">
-        <v>-0.08115585861298261</v>
+        <v>-0.08115585861298327</v>
       </c>
       <c r="D325" t="n">
         <v>0.06503011751357245</v>
@@ -6546,7 +6534,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C327" t="n">
-        <v>-0.0995298071364627</v>
+        <v>-0.09952980713646202</v>
       </c>
       <c r="E327" t="n">
         <v>-0.09251183205099195</v>
@@ -6562,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>0.05985761310512747</v>
+        <v>0.05985761310513085</v>
       </c>
       <c r="E328" t="n">
         <v>0.0262724550245872</v>
@@ -6578,7 +6566,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C329" t="n">
-        <v>0.3013724242240386</v>
+        <v>0.3013724242240363</v>
       </c>
       <c r="D329" t="n">
         <v>10.57697498722569</v>
@@ -6597,7 +6585,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C330" t="n">
-        <v>0.05606408790865321</v>
+        <v>0.05606408790865598</v>
       </c>
       <c r="D330" t="n">
         <v>1.002285335360499</v>
@@ -6616,7 +6604,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C331" t="n">
-        <v>-0.1354293431500969</v>
+        <v>-0.1354293431500976</v>
       </c>
       <c r="D331" t="n">
         <v>0.5857130926904577</v>
@@ -6635,7 +6623,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C332" t="n">
-        <v>-0.05232644221865436</v>
+        <v>-0.05232644221865502</v>
       </c>
       <c r="D332" t="n">
         <v>-0.03241426867746867</v>
@@ -6654,7 +6642,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C333" t="n">
-        <v>0.07644534296413587</v>
+        <v>0.07644534296413313</v>
       </c>
       <c r="D333" t="n">
         <v>0.1633203697229544</v>
@@ -6673,7 +6661,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C334" t="n">
-        <v>0.1218529044717134</v>
+        <v>0.1218529044717119</v>
       </c>
       <c r="E334" t="n">
         <v>0.1834892578813791</v>
@@ -6689,7 +6677,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C335" t="n">
-        <v>0.08445554291665069</v>
+        <v>0.08445554291664797</v>
       </c>
       <c r="D335" t="n">
         <v>0.1932181536090085</v>
@@ -6708,7 +6696,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C336" t="n">
-        <v>-0.1504057108788288</v>
+        <v>-0.1504057108788294</v>
       </c>
       <c r="D336" t="n">
         <v>1.092925109370343</v>
@@ -6727,7 +6715,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C337" t="n">
-        <v>0.09613081044839875</v>
+        <v>0.09613081044840294</v>
       </c>
       <c r="D337" t="n">
         <v>1.088772573114447</v>
@@ -6746,7 +6734,7 @@
         <v>0.3895668117627256</v>
       </c>
       <c r="C338" t="n">
-        <v>0.2724544422963905</v>
+        <v>0.2724544422963881</v>
       </c>
       <c r="D338" t="n">
         <v>0.5016617183338323</v>
@@ -6765,7 +6753,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C339" t="n">
-        <v>-0.03965325230389841</v>
+        <v>-0.03965325230389924</v>
       </c>
       <c r="D339" t="n">
         <v>0.2008538983017766</v>
@@ -6784,7 +6772,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C340" t="n">
-        <v>-0.04660041286213917</v>
+        <v>-0.04660041286213983</v>
       </c>
       <c r="D340" t="n">
         <v>0.1229711699582135</v>
@@ -6803,7 +6791,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C341" t="n">
-        <v>1.351263437040634</v>
+        <v>1.351263437040635</v>
       </c>
       <c r="D341" t="n">
         <v>0.06333842376662904</v>
@@ -6822,7 +6810,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C342" t="n">
-        <v>-0.004301536119708117</v>
+        <v>-0.004301536119708278</v>
       </c>
       <c r="D342" t="n">
         <v>-0.01034519889909369</v>
@@ -6841,7 +6829,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C343" t="n">
-        <v>-0.124316959421859</v>
+        <v>-0.1243169594218595</v>
       </c>
       <c r="D343" t="n">
         <v>-0.09145478077566532</v>
@@ -6860,7 +6848,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C344" t="n">
-        <v>0.1182020974989751</v>
+        <v>0.1182020974989801</v>
       </c>
       <c r="D344" t="n">
         <v>1.307008454934238</v>
@@ -6898,7 +6886,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C346" t="n">
-        <v>0.1560851151929818</v>
+        <v>0.1560851151929772</v>
       </c>
       <c r="D346" t="n">
         <v>-0.04524221419894243</v>
@@ -6917,7 +6905,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C347" t="n">
-        <v>0.07973704186562207</v>
+        <v>0.07973704186562632</v>
       </c>
       <c r="D347" t="n">
         <v>0.1178907459575758</v>
@@ -6955,7 +6943,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C349" t="n">
-        <v>0.09750500906368741</v>
+        <v>0.09750500906369339</v>
       </c>
       <c r="D349" t="n">
         <v>0.2381809626630735</v>
@@ -6974,7 +6962,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C350" t="n">
-        <v>0.09810231660488875</v>
+        <v>0.09810231660488307</v>
       </c>
       <c r="E350" t="n">
         <v>0.1034768046123427</v>
@@ -6990,7 +6978,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C351" t="n">
-        <v>-0.1156953902399038</v>
+        <v>-0.1156953902399041</v>
       </c>
       <c r="D351" t="n">
         <v>-0.1562202454311443</v>
@@ -7009,7 +6997,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C352" t="n">
-        <v>-0.05114468046594727</v>
+        <v>-0.05114468046594827</v>
       </c>
       <c r="D352" t="n">
         <v>-0.08169125070400451</v>
@@ -7028,7 +7016,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C353" t="n">
-        <v>-0.09375856218620096</v>
+        <v>-0.09375856218620182</v>
       </c>
       <c r="D353" t="n">
         <v>-0.1841582217442071</v>
@@ -7047,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>-0.3206904065463112</v>
+        <v>-0.3206904065463118</v>
       </c>
       <c r="D354" t="n">
         <v>-2.462816069534621</v>
@@ -7066,7 +7054,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C355" t="n">
-        <v>-0.1700503670643457</v>
+        <v>-0.1700503670643463</v>
       </c>
       <c r="D355" t="n">
         <v>-0.3707854894719856</v>
@@ -7085,7 +7073,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C356" t="n">
-        <v>0.0512429045829618</v>
+        <v>0.05124290458295531</v>
       </c>
       <c r="D356" t="n">
         <v>0.05819372275036995</v>
@@ -7104,7 +7092,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C357" t="n">
-        <v>0.1658388707373959</v>
+        <v>0.1658388707373937</v>
       </c>
       <c r="D357" t="n">
         <v>0.1973175468070803</v>
@@ -7142,7 +7130,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C359" t="n">
-        <v>-0.2494191170368323</v>
+        <v>-0.2494191170368325</v>
       </c>
       <c r="D359" t="n">
         <v>-0.1594378828683463</v>
@@ -7161,7 +7149,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C360" t="n">
-        <v>0.09825029415217618</v>
+        <v>0.09825029415218006</v>
       </c>
       <c r="D360" t="n">
         <v>0.08880876950491945</v>
@@ -7199,7 +7187,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C362" t="n">
-        <v>0.115843914176324</v>
+        <v>0.1158439141763213</v>
       </c>
       <c r="D362" t="n">
         <v>0.1131769121746097</v>
@@ -7218,7 +7206,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C363" t="n">
-        <v>0.5457678996319077</v>
+        <v>0.5457678996319086</v>
       </c>
       <c r="D363" t="n">
         <v>0.4086083494335466</v>
@@ -7237,7 +7225,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C364" t="n">
-        <v>0.06378000916033366</v>
+        <v>0.06378000916033122</v>
       </c>
       <c r="D364" t="n">
         <v>0.1296909937664701</v>
@@ -7256,7 +7244,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C365" t="n">
-        <v>0.1141818325255915</v>
+        <v>0.1141818325255855</v>
       </c>
       <c r="D365" t="n">
         <v>-0.06559484992464942</v>
@@ -7275,7 +7263,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C366" t="n">
-        <v>-0.1208300465647484</v>
+        <v>-0.1208300465647477</v>
       </c>
       <c r="D366" t="n">
         <v>-0.1872844486148215</v>
@@ -7294,7 +7282,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C367" t="n">
-        <v>0.03452444412828314</v>
+        <v>0.03452444412827688</v>
       </c>
       <c r="D367" t="n">
         <v>0.6586180726137945</v>
@@ -7313,7 +7301,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C368" t="n">
-        <v>-0.004508342797663261</v>
+        <v>-0.004508342797663904</v>
       </c>
       <c r="E368" t="n">
         <v>0.004695621457006569</v>
@@ -7329,7 +7317,7 @@
         <v>-0.3400754415976217</v>
       </c>
       <c r="C369" t="n">
-        <v>-0.4253828453728857</v>
+        <v>-0.4253828453728866</v>
       </c>
       <c r="D369" t="n">
         <v>-0.4948350706745379</v>
@@ -7348,7 +7336,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C370" t="n">
-        <v>-2.400121415585184</v>
+        <v>-2.40012141558518</v>
       </c>
       <c r="D370" t="n">
         <v>-0.1741285395804231</v>
@@ -7367,7 +7355,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C371" t="n">
-        <v>-0.03772742106074422</v>
+        <v>-0.03772742106074356</v>
       </c>
       <c r="D371" t="n">
         <v>0.05474936692102755</v>
@@ -7405,7 +7393,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C373" t="n">
-        <v>0.0160761198642767</v>
+        <v>0.01607611986427447</v>
       </c>
       <c r="D373" t="n">
         <v>-0.3011779034666442</v>
@@ -7424,7 +7412,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C374" t="n">
-        <v>0.05864330810172702</v>
+        <v>0.05864330810172733</v>
       </c>
       <c r="D374" t="n">
         <v>0.04477556230862663</v>
@@ -7443,7 +7431,7 @@
         <v>-0.2515387669959644</v>
       </c>
       <c r="C375" t="n">
-        <v>-0.2037582915962096</v>
+        <v>-0.2037582915962101</v>
       </c>
       <c r="D375" t="n">
         <v>-0.1791650512317629</v>
@@ -7462,7 +7450,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C376" t="n">
-        <v>-0.05488998940235634</v>
+        <v>-0.05488998940235701</v>
       </c>
       <c r="D376" t="n">
         <v>0.3372971829871857</v>
@@ -7481,7 +7469,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C377" t="n">
-        <v>-0.08709876875588866</v>
+        <v>-0.08709876875588832</v>
       </c>
       <c r="D377" t="n">
         <v>-0.02820563452739213</v>
@@ -7500,7 +7488,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C378" t="n">
-        <v>0.07485682514357057</v>
+        <v>0.07485682514356844</v>
       </c>
       <c r="D378" t="n">
         <v>0.09146256693679818</v>
@@ -7519,7 +7507,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C379" t="n">
-        <v>-0.03326433395777373</v>
+        <v>-0.03326433395777422</v>
       </c>
       <c r="E379" t="n">
         <v>0.001809034922190344</v>
@@ -7535,7 +7523,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C380" t="n">
-        <v>0.2706861332450136</v>
+        <v>0.2706861332450133</v>
       </c>
       <c r="D380" t="n">
         <v>0.3119759537461559</v>
@@ -7554,7 +7542,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C381" t="n">
-        <v>-0.08820221766052426</v>
+        <v>-0.08820221766052358</v>
       </c>
       <c r="E381" t="n">
         <v>-0.08821652126254265</v>
@@ -7570,7 +7558,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C382" t="n">
-        <v>-0.01329781905475503</v>
+        <v>-0.01329781905475536</v>
       </c>
       <c r="D382" t="n">
         <v>-0.3663718159081119</v>
@@ -7608,7 +7596,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C384" t="n">
-        <v>0.05748223382819986</v>
+        <v>0.05748223382820109</v>
       </c>
       <c r="D384" t="n">
         <v>-0.01972187809692175</v>
@@ -7627,7 +7615,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C385" t="n">
-        <v>-0.03633841116337786</v>
+        <v>-0.03633841116337851</v>
       </c>
       <c r="D385" t="n">
         <v>-0.1634571206042747</v>
@@ -7665,7 +7653,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C387" t="n">
-        <v>0.1556602001943276</v>
+        <v>0.1556602001943224</v>
       </c>
       <c r="D387" t="n">
         <v>0.5010511395518349</v>
@@ -7684,7 +7672,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C388" t="n">
-        <v>-0.007116545059367923</v>
+        <v>-0.00711654505936744</v>
       </c>
       <c r="D388" t="n">
         <v>0.02478485434557554</v>
@@ -7703,7 +7691,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C389" t="n">
-        <v>0.005056490285451706</v>
+        <v>0.005056490285447236</v>
       </c>
       <c r="D389" t="n">
         <v>0.001206621336885865</v>
@@ -7722,7 +7710,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C390" t="n">
-        <v>0.01028946099713666</v>
+        <v>0.01028946099714366</v>
       </c>
       <c r="D390" t="n">
         <v>0.03229166002917542</v>
@@ -7741,7 +7729,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C391" t="n">
-        <v>-0.06396352477525961</v>
+        <v>-0.06396352477525945</v>
       </c>
       <c r="D391" t="n">
         <v>9.928294021401493</v>
@@ -7760,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>0.07534116853812232</v>
+        <v>0.0753411685381199</v>
       </c>
       <c r="E392" t="n">
         <v>0.08679061507882271</v>
@@ -7795,7 +7783,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C394" t="n">
-        <v>-0.01254951294564839</v>
+        <v>-0.01254951294564807</v>
       </c>
       <c r="D394" t="n">
         <v>-0.3149955196584944</v>
@@ -7814,7 +7802,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C395" t="n">
-        <v>-0.1758002938316424</v>
+        <v>-0.1758002938316431</v>
       </c>
       <c r="D395" t="n">
         <v>-9.177923440992858</v>
@@ -7833,7 +7821,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C396" t="n">
-        <v>-0.1980365687167691</v>
+        <v>-0.1980365687167686</v>
       </c>
       <c r="D396" t="n">
         <v>-0.02042329839402417</v>
@@ -7852,7 +7840,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C397" t="n">
-        <v>-0.04622648559772715</v>
+        <v>-0.04622648559772748</v>
       </c>
       <c r="D397" t="n">
         <v>0.1016562861789533</v>
@@ -7871,7 +7859,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C398" t="n">
-        <v>-0.1569214402686886</v>
+        <v>-0.1569214402686883</v>
       </c>
       <c r="D398" t="n">
         <v>-1.897579301468817</v>
@@ -7890,7 +7878,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C399" t="n">
-        <v>-0.1004926852217548</v>
+        <v>-0.1004926852217545</v>
       </c>
       <c r="D399" t="n">
         <v>-0.1566007531029809</v>
@@ -7928,7 +7916,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C401" t="n">
-        <v>-0.0209518136252046</v>
+        <v>-0.02095181362520492</v>
       </c>
       <c r="D401" t="n">
         <v>-0.05874618227390561</v>
@@ -7947,7 +7935,7 @@
         <v>-0.3584539709124763</v>
       </c>
       <c r="C402" t="n">
-        <v>-0.3716392963516925</v>
+        <v>-0.3716392963516933</v>
       </c>
       <c r="D402" t="n">
         <v>-0.2569348604360374</v>
@@ -7966,7 +7954,7 @@
         <v>-0.2863041851566411</v>
       </c>
       <c r="C403" t="n">
-        <v>-0.3686694651497924</v>
+        <v>-0.3686694651497918</v>
       </c>
       <c r="D403" t="n">
         <v>0.04194476072369611</v>
@@ -7985,7 +7973,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C404" t="n">
-        <v>0.1719939210915528</v>
+        <v>0.1719939210915502</v>
       </c>
       <c r="D404" t="n">
         <v>0.06524724526369904</v>
@@ -8004,7 +7992,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C405" t="n">
-        <v>-0.1001338535244499</v>
+        <v>-0.1001338535244494</v>
       </c>
       <c r="D405" t="n">
         <v>-0.07260154009073061</v>
@@ -8023,7 +8011,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C406" t="n">
-        <v>-0.2098956618604593</v>
+        <v>-0.2098956618604599</v>
       </c>
       <c r="D406" t="n">
         <v>-0.06849334454264977</v>
@@ -8042,7 +8030,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C407" t="n">
-        <v>0.04759976522558537</v>
+        <v>0.0475997652255832</v>
       </c>
       <c r="D407" t="n">
         <v>0.2828423190579504</v>
@@ -8061,7 +8049,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C408" t="n">
-        <v>0.03594811259950263</v>
+        <v>0.0359481125994992</v>
       </c>
       <c r="D408" t="n">
         <v>1.420428428420544</v>
@@ -8080,7 +8068,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C409" t="n">
-        <v>0.0850524092716404</v>
+        <v>0.08505240927164584</v>
       </c>
       <c r="D409" t="n">
         <v>-0.01831518354166338</v>
@@ -8099,7 +8087,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C410" t="n">
-        <v>-0.119938726127202</v>
+        <v>-0.1199387261272013</v>
       </c>
       <c r="D410" t="n">
         <v>-0.10003962874829</v>
@@ -8118,7 +8106,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C411" t="n">
-        <v>0.01459299375655294</v>
+        <v>0.0145929937565558</v>
       </c>
       <c r="D411" t="n">
         <v>-0.1270019513509641</v>
@@ -8137,7 +8125,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C412" t="n">
-        <v>-0.07191329418526933</v>
+        <v>-0.07191329418526866</v>
       </c>
       <c r="D412" t="n">
         <v>-0.02448983354131854</v>
@@ -8156,7 +8144,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C413" t="n">
-        <v>-0.06948474806989814</v>
+        <v>-0.06948474806989847</v>
       </c>
       <c r="D413" t="n">
         <v>5.004450451218052</v>
@@ -8175,7 +8163,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C414" t="n">
-        <v>0.02614013746379018</v>
+        <v>0.02614013746378735</v>
       </c>
       <c r="D414" t="n">
         <v>-0.06398000973027165</v>
@@ -8194,7 +8182,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C415" t="n">
-        <v>0.05011429345080692</v>
+        <v>0.05011429345080105</v>
       </c>
       <c r="D415" t="n">
         <v>0.1046069427143234</v>
@@ -8213,7 +8201,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C416" t="n">
-        <v>0.07305040218140961</v>
+        <v>0.07305040218140869</v>
       </c>
       <c r="D416" t="n">
         <v>0.08433685634436108</v>
@@ -8286,7 +8274,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C420" t="n">
-        <v>-1.051869637424227</v>
+        <v>-1.051869637424228</v>
       </c>
       <c r="D420" t="n">
         <v>-0.01651980142019421</v>
@@ -8305,7 +8293,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C421" t="n">
-        <v>-0.09254137120381295</v>
+        <v>-0.09254137120381328</v>
       </c>
       <c r="D421" t="n">
         <v>0.3460064157805592</v>
@@ -8324,7 +8312,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C422" t="n">
-        <v>-0.1275366239936803</v>
+        <v>-0.1275366239936807</v>
       </c>
       <c r="D422" t="n">
         <v>-0.3029296615853045</v>
@@ -8343,7 +8331,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C423" t="n">
-        <v>-0.1885961923487768</v>
+        <v>-0.1885961923487767</v>
       </c>
       <c r="D423" t="n">
         <v>-1.186141854240963</v>
@@ -8362,7 +8350,7 @@
         <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>0.9280816482453507</v>
+        <v>0.9280816482453477</v>
       </c>
       <c r="D424" t="n">
         <v>-0.1298060120776602</v>
@@ -8400,7 +8388,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C426" t="n">
-        <v>-0.06405993629534443</v>
+        <v>-0.06405993629534493</v>
       </c>
       <c r="D426" t="n">
         <v>0.5991690909151274</v>
@@ -8419,7 +8407,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C427" t="n">
-        <v>-0.1785512239309822</v>
+        <v>-0.1785512239309817</v>
       </c>
       <c r="D427" t="n">
         <v>-0.3333170482549431</v>
@@ -8438,7 +8426,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C428" t="n">
-        <v>-0.1278030403913626</v>
+        <v>-0.1278030403913624</v>
       </c>
       <c r="D428" t="n">
         <v>-0.05488118873405633</v>
@@ -8476,7 +8464,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C430" t="n">
-        <v>0.1791044282167079</v>
+        <v>0.1791044282167082</v>
       </c>
       <c r="E430" t="n">
         <v>0.1760196145145912</v>
@@ -8492,7 +8480,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C431" t="n">
-        <v>0.02148217711126692</v>
+        <v>0.02148217711125998</v>
       </c>
       <c r="D431" t="n">
         <v>-0.2250801790881851</v>
@@ -8511,7 +8499,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C432" t="n">
-        <v>0.324539432723003</v>
+        <v>0.3245394327230063</v>
       </c>
       <c r="D432" t="n">
         <v>-1.6083336367484</v>
@@ -8530,7 +8518,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C433" t="n">
-        <v>0.04630530707228288</v>
+        <v>0.04630530707228878</v>
       </c>
       <c r="D433" t="n">
         <v>0.156458027454137</v>
@@ -8549,7 +8537,7 @@
         <v>-0.2009126939259964</v>
       </c>
       <c r="C434" t="n">
-        <v>-0.1161508703276225</v>
+        <v>-0.116150870327622</v>
       </c>
       <c r="D434" t="n">
         <v>-0.6218380015378541</v>
@@ -8568,7 +8556,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C435" t="n">
-        <v>0.1179106739798024</v>
+        <v>0.1179106739797959</v>
       </c>
       <c r="D435" t="n">
         <v>0.1961105792592704</v>
@@ -8587,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>0.02191048330213251</v>
+        <v>0.02191048330212778</v>
       </c>
       <c r="D436" t="n">
         <v>0.150903379079041</v>
@@ -8606,7 +8594,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C437" t="n">
-        <v>0.02845053877559994</v>
+        <v>0.02845053877559711</v>
       </c>
       <c r="D437" t="n">
         <v>0.09612183031668087</v>
@@ -8625,7 +8613,7 @@
         <v>-0.5353317329965558</v>
       </c>
       <c r="C438" t="n">
-        <v>-0.6617046667383076</v>
+        <v>-0.6617046667383065</v>
       </c>
       <c r="D438" t="n">
         <v>-0.616204622375791</v>
@@ -8644,7 +8632,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C439" t="n">
-        <v>-0.04797023719740696</v>
+        <v>-0.04797023719740679</v>
       </c>
       <c r="E439" t="n">
         <v>-0.07681385738517883</v>
@@ -8660,7 +8648,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C440" t="n">
-        <v>0.1130419310950697</v>
+        <v>0.1130419310950665</v>
       </c>
       <c r="E440" t="n">
         <v>0.09429314082328664</v>
@@ -8676,7 +8664,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C441" t="n">
-        <v>-0.1313148520480805</v>
+        <v>-0.1313148520480798</v>
       </c>
       <c r="D441" t="n">
         <v>-0.1341110989407537</v>
@@ -8695,7 +8683,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C442" t="n">
-        <v>0.4472629902342641</v>
+        <v>0.4472629902342605</v>
       </c>
       <c r="D442" t="n">
         <v>-0.01793810716159086</v>
@@ -8733,7 +8721,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C444" t="n">
-        <v>0.06184023789639057</v>
+        <v>0.06184023789638812</v>
       </c>
       <c r="D444" t="n">
         <v>0.1397692592446976</v>
@@ -8752,7 +8740,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C445" t="n">
-        <v>-0.01178317966950367</v>
+        <v>-0.01178317966950464</v>
       </c>
       <c r="D445" t="n">
         <v>0.8927235813302892</v>
@@ -8771,7 +8759,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C446" t="n">
-        <v>0.004092159301671275</v>
+        <v>0.004092159301669679</v>
       </c>
       <c r="D446" t="n">
         <v>-0.02439658702694249</v>
@@ -8790,7 +8778,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C447" t="n">
-        <v>-0.05587725042000858</v>
+        <v>-0.05587725042000908</v>
       </c>
       <c r="D447" t="n">
         <v>-0.477342016806155</v>
@@ -8809,7 +8797,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C448" t="n">
-        <v>0.03917423008272652</v>
+        <v>0.03917423008272059</v>
       </c>
       <c r="D448" t="n">
         <v>-0.2347293333969745</v>
@@ -8828,7 +8816,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C449" t="n">
-        <v>-0.01659511192732462</v>
+        <v>-0.01659511192732527</v>
       </c>
       <c r="D449" t="n">
         <v>-0.1369300547503812</v>
@@ -8847,7 +8835,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C450" t="n">
-        <v>-0.02599520853294441</v>
+        <v>-0.02599520853294474</v>
       </c>
       <c r="D450" t="n">
         <v>0.08813839718203198</v>
@@ -8866,7 +8854,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C451" t="n">
-        <v>-0.1587854325806939</v>
+        <v>-0.1587854325806934</v>
       </c>
       <c r="D451" t="n">
         <v>-0.132596098646963</v>
@@ -8885,7 +8873,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C452" t="n">
-        <v>0.2316183203449122</v>
+        <v>0.2316183203449111</v>
       </c>
       <c r="D452" t="n">
         <v>0.04185579260783422</v>
@@ -8904,7 +8892,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C453" t="n">
-        <v>-2.009271592572254</v>
+        <v>-2.009271592572256</v>
       </c>
       <c r="D453" t="n">
         <v>-0.3948231927488476</v>
@@ -8923,7 +8911,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C454" t="n">
-        <v>-0.1797186079739715</v>
+        <v>-0.179718607973971</v>
       </c>
       <c r="D454" t="n">
         <v>-0.05984574106795535</v>
@@ -8942,7 +8930,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C455" t="n">
-        <v>0.01247409980143002</v>
+        <v>0.01247409980143224</v>
       </c>
       <c r="D455" t="n">
         <v>0.8927320562502671</v>
@@ -8961,7 +8949,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C456" t="n">
-        <v>0.06852442508493628</v>
+        <v>0.0685244250849375</v>
       </c>
       <c r="D456" t="n">
         <v>-0.04811974878427128</v>
@@ -8980,7 +8968,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C457" t="n">
-        <v>-0.01885601207287811</v>
+        <v>-0.0188560120728786</v>
       </c>
       <c r="D457" t="n">
         <v>-0.03802998491679953</v>
@@ -8999,7 +8987,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C458" t="n">
-        <v>-0.0625073956453765</v>
+        <v>-0.06250739564537718</v>
       </c>
       <c r="D458" t="n">
         <v>-11.80326702784414</v>
@@ -9018,7 +9006,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C459" t="n">
-        <v>-0.2108356151667896</v>
+        <v>-0.2108356151667891</v>
       </c>
       <c r="E459" t="n">
         <v>-0.1691667115306134</v>
@@ -9034,7 +9022,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C460" t="n">
-        <v>0.05630334060085818</v>
+        <v>0.05630334060085849</v>
       </c>
       <c r="D460" t="n">
         <v>0.7390511282914916</v>
@@ -9053,7 +9041,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C461" t="n">
-        <v>0.02437583528229669</v>
+        <v>0.02437583528230394</v>
       </c>
       <c r="D461" t="n">
         <v>-2.925053132639333</v>
@@ -9072,7 +9060,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C462" t="n">
-        <v>-0.8812850244203996</v>
+        <v>-0.8812850244203987</v>
       </c>
       <c r="D462" t="n">
         <v>-0.1089231083750067</v>
@@ -9091,7 +9079,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C463" t="n">
-        <v>-0.1262948122541684</v>
+        <v>-0.1262948122541688</v>
       </c>
       <c r="D463" t="n">
         <v>-0.002979595335425295</v>
@@ -9126,7 +9114,7 @@
         <v>0</v>
       </c>
       <c r="C465" t="n">
-        <v>0.0004252697905368767</v>
+        <v>0.0004252697905416804</v>
       </c>
       <c r="D465" t="n">
         <v>-0.9684761571131734</v>
@@ -9145,7 +9133,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C466" t="n">
-        <v>0.1175777414254575</v>
+        <v>0.1175777414254522</v>
       </c>
       <c r="D466" t="n">
         <v>-0.06439543660333687</v>
@@ -9180,7 +9168,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C468" t="n">
-        <v>-0.06196201200832906</v>
+        <v>-0.06196201200832856</v>
       </c>
       <c r="D468" t="n">
         <v>0.2550968938404989</v>
@@ -9199,7 +9187,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C469" t="n">
-        <v>2.186623601781229</v>
+        <v>2.18662360178123</v>
       </c>
       <c r="D469" t="n">
         <v>0.2702612375128318</v>
@@ -9218,7 +9206,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C470" t="n">
-        <v>0.06821258445880973</v>
+        <v>0.06821258445880699</v>
       </c>
       <c r="D470" t="n">
         <v>0.06807262957138289</v>
@@ -9237,7 +9225,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C471" t="n">
-        <v>0.3021486819401405</v>
+        <v>0.3021486819401369</v>
       </c>
       <c r="E471" t="n">
         <v>0.03417068949793079</v>
@@ -9253,7 +9241,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C472" t="n">
-        <v>-0.2113989969863211</v>
+        <v>-0.2113989969863213</v>
       </c>
       <c r="D472" t="n">
         <v>-0.1677771426645594</v>
@@ -9272,7 +9260,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C473" t="n">
-        <v>0.1407731637454937</v>
+        <v>0.1407731637454879</v>
       </c>
       <c r="D473" t="n">
         <v>-0.06790594977275878</v>
@@ -9291,7 +9279,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C474" t="n">
-        <v>-0.01881377453254016</v>
+        <v>-0.01881377453253951</v>
       </c>
       <c r="D474" t="n">
         <v>-0.08319272398656863</v>
@@ -9310,7 +9298,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C475" t="n">
-        <v>-0.04311213667773008</v>
+        <v>-0.04311213667773074</v>
       </c>
       <c r="D475" t="n">
         <v>-0.07415251651855952</v>
@@ -9329,7 +9317,7 @@
         <v>-0.2515387669959644</v>
       </c>
       <c r="C476" t="n">
-        <v>-0.2630645880541297</v>
+        <v>-0.2630645880541295</v>
       </c>
       <c r="D476" t="n">
         <v>-0.3157634200957214</v>
@@ -9348,7 +9336,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C477" t="n">
-        <v>-0.2516564962508407</v>
+        <v>-0.2516564962508404</v>
       </c>
       <c r="D477" t="n">
         <v>0.4784829019148493</v>
@@ -9367,7 +9355,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C478" t="n">
-        <v>0.8029762504186886</v>
+        <v>0.8029762504186865</v>
       </c>
       <c r="D478" t="n">
         <v>-0.1988004922531486</v>
@@ -9386,7 +9374,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C479" t="n">
-        <v>4.817012150365663</v>
+        <v>4.817012150365662</v>
       </c>
       <c r="D479" t="n">
         <v>0.2868279966054696</v>
@@ -9405,7 +9393,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C480" t="n">
-        <v>-0.1871487260391249</v>
+        <v>-0.1871487260391254</v>
       </c>
       <c r="D480" t="n">
         <v>9.402766627586734</v>
@@ -9424,7 +9412,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C481" t="n">
-        <v>0.001401938790992821</v>
+        <v>0.00140193879098962</v>
       </c>
       <c r="D481" t="n">
         <v>0.07039864109037536</v>
@@ -9443,7 +9431,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C482" t="n">
-        <v>-0.08160938112200611</v>
+        <v>-0.08160938112200578</v>
       </c>
       <c r="D482" t="n">
         <v>-0.254561343308832</v>
@@ -9462,7 +9450,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C483" t="n">
-        <v>-0.110629922655087</v>
+        <v>-0.1106299226550874</v>
       </c>
       <c r="D483" t="n">
         <v>-0.07305285697904945</v>
@@ -9481,7 +9469,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C484" t="n">
-        <v>0.02007270323208668</v>
+        <v>0.02007270323208384</v>
       </c>
       <c r="E484" t="n">
         <v>0.01275651134509322</v>
@@ -9516,7 +9504,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C486" t="n">
-        <v>-0.106397923509074</v>
+        <v>-0.1063979235090736</v>
       </c>
       <c r="D486" t="n">
         <v>-10.77155138152899</v>
@@ -9535,7 +9523,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C487" t="n">
-        <v>-0.06445220192203273</v>
+        <v>-0.06445220192203306</v>
       </c>
       <c r="D487" t="n">
         <v>0.3337907331166516</v>
@@ -9554,7 +9542,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C488" t="n">
-        <v>0.01756152782073918</v>
+        <v>0.01756152782074203</v>
       </c>
       <c r="D488" t="n">
         <v>0.2439923064942018</v>
@@ -9573,7 +9561,7 @@
         <v>-0.3040061868900999</v>
       </c>
       <c r="C489" t="n">
-        <v>-0.2959913581681296</v>
+        <v>-0.29599135816813</v>
       </c>
       <c r="D489" t="n">
         <v>-0.4827705645365933</v>
@@ -9592,7 +9580,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C490" t="n">
-        <v>0.07969264227996259</v>
+        <v>0.07969264227996925</v>
       </c>
       <c r="D490" t="n">
         <v>0.05031481626241027</v>
@@ -9630,7 +9618,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C492" t="n">
-        <v>0.02456320949769164</v>
+        <v>0.02456320949769447</v>
       </c>
       <c r="D492" t="n">
         <v>0.1872103936629852</v>
@@ -9649,7 +9637,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C493" t="n">
-        <v>-0.04964690083175667</v>
+        <v>-0.04964690083175717</v>
       </c>
       <c r="E493" t="n">
         <v>-0.05868438959915326</v>
@@ -9665,7 +9653,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C494" t="n">
-        <v>0.6869628696911686</v>
+        <v>0.6869628696911655</v>
       </c>
       <c r="D494" t="n">
         <v>1.750693362667712</v>
@@ -9703,7 +9691,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C496" t="n">
-        <v>0.555913569657014</v>
+        <v>0.5559135696570171</v>
       </c>
       <c r="D496" t="n">
         <v>3.054903102228939</v>
@@ -9722,7 +9710,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C497" t="n">
-        <v>-0.06084727662210245</v>
+        <v>-0.06084727662210278</v>
       </c>
       <c r="D497" t="n">
         <v>-0.7897184835716532</v>
@@ -9741,7 +9729,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C498" t="n">
-        <v>0.01947888422336375</v>
+        <v>0.0194788842233628</v>
       </c>
       <c r="D498" t="n">
         <v>-0.1311199722215808</v>
@@ -9760,7 +9748,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C499" t="n">
-        <v>-0.001718435347288047</v>
+        <v>-0.001718435347287727</v>
       </c>
       <c r="D499" t="n">
         <v>-0.01553648998864965</v>
@@ -9798,7 +9786,7 @@
         <v>-0.3584539709124763</v>
       </c>
       <c r="C501" t="n">
-        <v>-0.3953675191387103</v>
+        <v>-0.3953675191387099</v>
       </c>
       <c r="D501" t="n">
         <v>-0.1423690968348287</v>
@@ -9817,7 +9805,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C502" t="n">
-        <v>-0.1147530905149032</v>
+        <v>-0.1147530905149035</v>
       </c>
       <c r="D502" t="n">
         <v>-0.07447393338360171</v>
@@ -9836,7 +9824,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C503" t="n">
-        <v>0.2114035309190855</v>
+        <v>0.2114035309190869</v>
       </c>
       <c r="E503" t="n">
         <v>0.06025913857471931</v>
@@ -9852,7 +9840,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C504" t="n">
-        <v>0.01623725605850003</v>
+        <v>0.01623725605850162</v>
       </c>
       <c r="D504" t="n">
         <v>0.02849166199410665</v>
@@ -9871,7 +9859,7 @@
         <v>-0.3219280948873623</v>
       </c>
       <c r="C505" t="n">
-        <v>-0.09003883839866206</v>
+        <v>-0.09003883839866121</v>
       </c>
       <c r="D505" t="n">
         <v>0.6348480546646791</v>
@@ -9890,7 +9878,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C506" t="n">
-        <v>-0.1698235425273376</v>
+        <v>-0.1698235425273377</v>
       </c>
       <c r="D506" t="n">
         <v>-0.02681903512502784</v>
@@ -9909,7 +9897,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C507" t="n">
-        <v>4.176765974977599</v>
+        <v>4.176765974977598</v>
       </c>
       <c r="D507" t="n">
         <v>0.5081955248291335</v>
@@ -9928,7 +9916,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C508" t="n">
-        <v>0.05710391991169071</v>
+        <v>0.05710391991168886</v>
       </c>
       <c r="D508" t="n">
         <v>0.1851724029479194</v>
@@ -9947,7 +9935,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C509" t="n">
-        <v>0.05593850650153708</v>
+        <v>0.0559385065015337</v>
       </c>
       <c r="D509" t="n">
         <v>0.3559211852403953</v>
@@ -9966,7 +9954,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C510" t="n">
-        <v>0.03340422738438367</v>
+        <v>0.03340422738437741</v>
       </c>
       <c r="D510" t="n">
         <v>0.08613132525933202</v>
@@ -9985,7 +9973,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C511" t="n">
-        <v>-0.04894567642500709</v>
+        <v>-0.04894567642500759</v>
       </c>
       <c r="D511" t="n">
         <v>0.0755619211846439</v>
@@ -10004,7 +9992,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C512" t="n">
-        <v>-0.07064401851627869</v>
+        <v>-0.07064401851627902</v>
       </c>
       <c r="D512" t="n">
         <v>-0.007492223273085016</v>
@@ -10023,7 +10011,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C513" t="n">
-        <v>0.3790399195199404</v>
+        <v>0.3790399195199394</v>
       </c>
       <c r="D513" t="n">
         <v>-0.1833208031608232</v>
@@ -10042,7 +10030,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C514" t="n">
-        <v>0.03202513940668705</v>
+        <v>0.03202513940668925</v>
       </c>
       <c r="D514" t="n">
         <v>-0.06104571317916783</v>
@@ -10080,7 +10068,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C516" t="n">
-        <v>-0.1647453765935301</v>
+        <v>-0.1647453765935297</v>
       </c>
       <c r="D516" t="n">
         <v>-0.157243232317903</v>
@@ -10099,7 +10087,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C517" t="n">
-        <v>-0.01458847777542253</v>
+        <v>-0.01458847777542237</v>
       </c>
       <c r="D517" t="n">
         <v>-0.114312409179424</v>
@@ -10118,7 +10106,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C518" t="n">
-        <v>-0.1449074001801752</v>
+        <v>-0.144907400180175</v>
       </c>
       <c r="D518" t="n">
         <v>-0.1765505372498884</v>
@@ -10137,7 +10125,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C519" t="n">
-        <v>0.09229807611448181</v>
+        <v>0.0922980761144758</v>
       </c>
       <c r="D519" t="n">
         <v>-0.1825500645723019</v>
@@ -10156,7 +10144,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C520" t="n">
-        <v>-0.06989601448570618</v>
+        <v>-0.06989601448570636</v>
       </c>
       <c r="D520" t="n">
         <v>-0.3285223628224325</v>
@@ -10175,7 +10163,7 @@
         <v>-0.2688167584278</v>
       </c>
       <c r="C521" t="n">
-        <v>-0.07149104237096986</v>
+        <v>-0.0714910423709702</v>
       </c>
       <c r="E521" t="n">
         <v>-0.1386677669377423</v>
@@ -10191,7 +10179,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C522" t="n">
-        <v>-0.1867908804986051</v>
+        <v>-0.186790880498606</v>
       </c>
       <c r="D522" t="n">
         <v>0.1113866508442118</v>
@@ -10210,7 +10198,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C523" t="n">
-        <v>-0.01077447159417526</v>
+        <v>-0.0107744715941751</v>
       </c>
       <c r="D523" t="n">
         <v>0.02688261533606729</v>
@@ -10229,7 +10217,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C524" t="n">
-        <v>-0.6252590431863552</v>
+        <v>-0.6252590431863559</v>
       </c>
       <c r="D524" t="n">
         <v>-1.487446189326812</v>
@@ -10248,7 +10236,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C525" t="n">
-        <v>0.03500940986896148</v>
+        <v>0.03500940986896117</v>
       </c>
       <c r="D525" t="n">
         <v>0.2770063280428223</v>
@@ -10267,7 +10255,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C526" t="n">
-        <v>0.05241524394695529</v>
+        <v>0.05241524394695158</v>
       </c>
       <c r="E526" t="n">
         <v>0.07152541576263775</v>
@@ -10302,7 +10290,7 @@
         <v>-0.2515387669959644</v>
       </c>
       <c r="C528" t="n">
-        <v>-0.5289167189585811</v>
+        <v>-0.5289167189585804</v>
       </c>
       <c r="D528" t="n">
         <v>-5.547995987895109</v>
@@ -10321,7 +10309,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C529" t="n">
-        <v>-0.0860287069941168</v>
+        <v>-0.08602870699411645</v>
       </c>
       <c r="D529" t="n">
         <v>-0.1351017997688873</v>
@@ -10340,7 +10328,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C530" t="n">
-        <v>-0.2598423936388007</v>
+        <v>-0.2598423936387999</v>
       </c>
       <c r="D530" t="n">
         <v>-0.226590982466589</v>
@@ -10359,7 +10347,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C531" t="n">
-        <v>1.098285438435845</v>
+        <v>1.098285438435848</v>
       </c>
       <c r="D531" t="n">
         <v>5.620767639995105</v>
@@ -10378,7 +10366,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C532" t="n">
-        <v>-0.5096831151365464</v>
+        <v>-0.5096831151365455</v>
       </c>
       <c r="D532" t="n">
         <v>-0.6015108943306025</v>
@@ -10397,7 +10385,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C533" t="n">
-        <v>-0.0212105225288447</v>
+        <v>-0.02121052252884405</v>
       </c>
       <c r="D533" t="n">
         <v>-0.1371756957581514</v>
@@ -10416,7 +10404,7 @@
         <v>-0.5777669993169522</v>
       </c>
       <c r="C534" t="n">
-        <v>-0.5613228592303457</v>
+        <v>-0.5613228592303463</v>
       </c>
       <c r="D534" t="n">
         <v>-0.5265448373625038</v>
@@ -10435,7 +10423,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C535" t="n">
-        <v>0.3200621808886609</v>
+        <v>0.3200621808886647</v>
       </c>
       <c r="D535" t="n">
         <v>-0.03482904263111563</v>
@@ -10454,7 +10442,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C536" t="n">
-        <v>0.0325397103867102</v>
+        <v>0.03253971038671177</v>
       </c>
       <c r="D536" t="n">
         <v>-0.06383850706331429</v>
@@ -10492,7 +10480,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C538" t="n">
-        <v>0.1204926423144611</v>
+        <v>0.1204926423144649</v>
       </c>
       <c r="D538" t="n">
         <v>0.1892661575755114</v>
@@ -10530,7 +10518,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C540" t="n">
-        <v>0.1013203284919841</v>
+        <v>0.1013203284919784</v>
       </c>
       <c r="D540" t="n">
         <v>0.9776862872362621</v>
@@ -10549,7 +10537,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C541" t="n">
-        <v>-0.02482633911289299</v>
+        <v>-0.02482633911289233</v>
       </c>
       <c r="D541" t="n">
         <v>0.001121502642271011</v>
@@ -10568,7 +10556,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C542" t="n">
-        <v>-0.04707886404553103</v>
+        <v>-0.04707886404553037</v>
       </c>
       <c r="D542" t="n">
         <v>0.0421183327943356</v>
@@ -10587,7 +10575,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C543" t="n">
-        <v>-0.05973092728893284</v>
+        <v>-0.05973092728893334</v>
       </c>
       <c r="E543" t="n">
         <v>-0.07441477392229068</v>
@@ -10603,7 +10591,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C544" t="n">
-        <v>-0.04712087946864892</v>
+        <v>-0.04712087946864826</v>
       </c>
       <c r="D544" t="n">
         <v>0.6069955162112577</v>
@@ -10641,7 +10629,7 @@
         <v>-0.3219280948873623</v>
       </c>
       <c r="C546" t="n">
-        <v>-0.2522088969990047</v>
+        <v>-0.2522088969990043</v>
       </c>
       <c r="D546" t="n">
         <v>3.881313452210429</v>
@@ -10660,7 +10648,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C547" t="n">
-        <v>1.826806273382259</v>
+        <v>1.826806273382261</v>
       </c>
       <c r="D547" t="n">
         <v>0.6394231897228805</v>
@@ -10679,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="C548" t="n">
-        <v>-0.01773271959405925</v>
+        <v>-0.01773271959405941</v>
       </c>
       <c r="D548" t="n">
         <v>0.5260484792651205</v>
@@ -10714,7 +10702,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C550" t="n">
-        <v>-0.08011421742237501</v>
+        <v>-0.08011421742237534</v>
       </c>
       <c r="D550" t="n">
         <v>-0.2119843999073587</v>
@@ -10733,7 +10721,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C551" t="n">
-        <v>-0.03670060278653214</v>
+        <v>-0.03670060278653149</v>
       </c>
       <c r="D551" t="n">
         <v>0.03237920998416979</v>
@@ -10752,7 +10740,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C552" t="n">
-        <v>-0.2924205229064113</v>
+        <v>-0.2924205229064105</v>
       </c>
       <c r="D552" t="n">
         <v>0.1947239902408357</v>
@@ -10790,7 +10778,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C554" t="n">
-        <v>0.02472781040310543</v>
+        <v>0.02472781040310606</v>
       </c>
       <c r="D554" t="n">
         <v>0.1039225644869714</v>
@@ -10809,7 +10797,7 @@
         <v>-0.4739311883324124</v>
       </c>
       <c r="C555" t="n">
-        <v>-0.3995423412837418</v>
+        <v>-0.3995423412837412</v>
       </c>
       <c r="D555" t="n">
         <v>-0.09215312587061357</v>
@@ -10828,7 +10816,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C556" t="n">
-        <v>-4.415124874322929</v>
+        <v>-4.415124874322927</v>
       </c>
       <c r="D556" t="n">
         <v>0.1463149979987259</v>
@@ -10847,7 +10835,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C557" t="n">
-        <v>-0.09356112146899725</v>
+        <v>-0.09356112146899691</v>
       </c>
       <c r="D557" t="n">
         <v>0.007071701039348195</v>
@@ -10866,7 +10854,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C558" t="n">
-        <v>0.08800792260584679</v>
+        <v>0.0880079226058495</v>
       </c>
       <c r="D558" t="n">
         <v>0.06012745493995631</v>
@@ -10885,7 +10873,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C559" t="n">
-        <v>0.08371965830388146</v>
+        <v>0.08371965830388418</v>
       </c>
       <c r="D559" t="n">
         <v>0.1638682244961417</v>
@@ -10904,7 +10892,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C560" t="n">
-        <v>0.2843737812995858</v>
+        <v>0.2843737812995916</v>
       </c>
       <c r="D560" t="n">
         <v>-0.09381209184962952</v>
@@ -10923,7 +10911,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C561" t="n">
-        <v>0.1573906288737814</v>
+        <v>0.1573906288737794</v>
       </c>
       <c r="D561" t="n">
         <v>0.3046872923326377</v>
@@ -10942,7 +10930,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C562" t="n">
-        <v>-0.08176773407028293</v>
+        <v>-0.08176773407028258</v>
       </c>
       <c r="D562" t="n">
         <v>-0.08244832421160903</v>
@@ -10961,7 +10949,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C563" t="n">
-        <v>-0.1011444370051424</v>
+        <v>-0.101144437005142</v>
       </c>
       <c r="D563" t="n">
         <v>0.2447315206085295</v>
@@ -10999,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>-0.001205906725680855</v>
+        <v>-0.001205906725681336</v>
       </c>
       <c r="D565" t="n">
         <v>0.1540270542861128</v>
@@ -11018,7 +11006,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C566" t="n">
-        <v>-0.03831249191318353</v>
+        <v>-0.03831249191318321</v>
       </c>
       <c r="D566" t="n">
         <v>-0.4348935883143369</v>
@@ -11037,7 +11025,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C567" t="n">
-        <v>-0.01417893516976165</v>
+        <v>-0.01417893516976246</v>
       </c>
       <c r="D567" t="n">
         <v>-0.09521917792123695</v>
@@ -11056,7 +11044,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C568" t="n">
-        <v>-0.1675736767303401</v>
+        <v>-0.1675736767303404</v>
       </c>
       <c r="D568" t="n">
         <v>-0.07783595546427824</v>
@@ -11075,7 +11063,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C569" t="n">
-        <v>0.06658461100533629</v>
+        <v>0.06658461100533171</v>
       </c>
       <c r="D569" t="n">
         <v>0.0392676796220847</v>
@@ -11094,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="C570" t="n">
-        <v>0.03443366687460077</v>
+        <v>0.03443366687459795</v>
       </c>
       <c r="D570" t="n">
         <v>0.01572116977664107</v>
@@ -11113,7 +11101,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C571" t="n">
-        <v>0.02895703967272369</v>
+        <v>0.02895703967272118</v>
       </c>
       <c r="D571" t="n">
         <v>0.03247690458045913</v>
@@ -11132,7 +11120,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C572" t="n">
-        <v>-0.006641234871339318</v>
+        <v>-0.006641234871338513</v>
       </c>
       <c r="D572" t="n">
         <v>0.2126322813344696</v>
@@ -11151,7 +11139,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C573" t="n">
-        <v>-0.01702661520113159</v>
+        <v>-0.01702661520113224</v>
       </c>
       <c r="D573" t="n">
         <v>0.07137268232438382</v>
@@ -11170,7 +11158,7 @@
         <v>0.3895668117627256</v>
       </c>
       <c r="C574" t="n">
-        <v>0.2216588515056543</v>
+        <v>0.2216588515056604</v>
       </c>
       <c r="D574" t="n">
         <v>0.1482680275763096</v>
@@ -11189,7 +11177,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C575" t="n">
-        <v>-0.06959999571715877</v>
+        <v>-0.06959999571715828</v>
       </c>
       <c r="D575" t="n">
         <v>10.01098433063031</v>
@@ -11208,7 +11196,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C576" t="n">
-        <v>0.05374415082758484</v>
+        <v>0.05374415082758607</v>
       </c>
       <c r="D576" t="n">
         <v>0.05742094509683668</v>
@@ -11227,7 +11215,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C577" t="n">
-        <v>-0.2099578839507216</v>
+        <v>-0.2099578839507214</v>
       </c>
       <c r="D577" t="n">
         <v>4.370207957490178</v>
@@ -11246,7 +11234,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C578" t="n">
-        <v>-3.75686543707956</v>
+        <v>-3.756865437079558</v>
       </c>
       <c r="D578" t="n">
         <v>-0.5306186311999395</v>
@@ -11265,7 +11253,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C579" t="n">
-        <v>-2.579755234935147</v>
+        <v>-2.579755234935146</v>
       </c>
       <c r="D579" t="n">
         <v>-0.6219519030850958</v>
@@ -11284,7 +11272,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C580" t="n">
-        <v>-0.05239203413104145</v>
+        <v>-0.05239203413104179</v>
       </c>
       <c r="D580" t="n">
         <v>-0.4822765578327756</v>
@@ -11303,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="C581" t="n">
-        <v>-0.06351498290880309</v>
+        <v>-0.06351498290880275</v>
       </c>
       <c r="D581" t="n">
         <v>-8.424584467546456</v>
@@ -11322,7 +11310,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C582" t="n">
-        <v>-0.03030657231120399</v>
+        <v>-0.03030657231120432</v>
       </c>
       <c r="D582" t="n">
         <v>0.4342760152157983</v>
@@ -11341,7 +11329,7 @@
         <v>-0.2009126939259964</v>
       </c>
       <c r="C583" t="n">
-        <v>-0.2063290277562465</v>
+        <v>-0.2063290277562467</v>
       </c>
       <c r="D583" t="n">
         <v>-0.09882632981416807</v>
@@ -11360,7 +11348,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C584" t="n">
-        <v>0.02988546591483575</v>
+        <v>0.029885465914837</v>
       </c>
       <c r="D584" t="n">
         <v>0.06820102793139023</v>
@@ -11379,7 +11367,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C585" t="n">
-        <v>0.1961586611412179</v>
+        <v>0.1961586611412151</v>
       </c>
       <c r="D585" t="n">
         <v>0.08902560358164351</v>
@@ -11398,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="C586" t="n">
-        <v>-0.1734870646025177</v>
+        <v>-0.1734870646025184</v>
       </c>
       <c r="D586" t="n">
         <v>-0.004398991091912849</v>
@@ -11455,7 +11443,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C589" t="n">
-        <v>-0.05292113001008367</v>
+        <v>-0.05292113001008351</v>
       </c>
       <c r="D589" t="n">
         <v>13.71775193522746</v>
@@ -11474,7 +11462,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C590" t="n">
-        <v>-0.1693608536851964</v>
+        <v>-0.1693608536851959</v>
       </c>
       <c r="D590" t="n">
         <v>-0.1341200637292934</v>
@@ -11493,7 +11481,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C591" t="n">
-        <v>-0.08087730334700476</v>
+        <v>-0.08087730334700527</v>
       </c>
       <c r="D591" t="n">
         <v>0.01155839984398853</v>
@@ -11512,7 +11500,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C592" t="n">
-        <v>-0.0922337169346179</v>
+        <v>-0.09223371693461842</v>
       </c>
       <c r="D592" t="n">
         <v>-0.07884420339967205</v>
@@ -11550,7 +11538,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C594" t="n">
-        <v>-0.01201364709014293</v>
+        <v>-0.01201364709014326</v>
       </c>
       <c r="D594" t="n">
         <v>0.1932119657488106</v>
@@ -11569,7 +11557,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C595" t="n">
-        <v>-0.006652860068361402</v>
+        <v>-0.006652860068362046</v>
       </c>
       <c r="D595" t="n">
         <v>0.01654150227392469</v>
@@ -11588,7 +11576,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C596" t="n">
-        <v>-0.01734790263827992</v>
+        <v>-0.0173479026382796</v>
       </c>
       <c r="D596" t="n">
         <v>0.04288531333485508</v>
@@ -11607,7 +11595,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C597" t="n">
-        <v>-0.1916094207677083</v>
+        <v>-0.1916094207677088</v>
       </c>
       <c r="D597" t="n">
         <v>-0.2381517869789276</v>
@@ -11626,7 +11614,7 @@
         <v>-0.4540316308947075</v>
       </c>
       <c r="C598" t="n">
-        <v>-2.826331090737707</v>
+        <v>-2.826331090737702</v>
       </c>
       <c r="D598" t="n">
         <v>-0.1849319350823358</v>
@@ -11645,7 +11633,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C599" t="n">
-        <v>0.005766593960251739</v>
+        <v>0.005766593960256525</v>
       </c>
       <c r="D599" t="n">
         <v>0.02385970995286123</v>
@@ -11664,7 +11652,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C600" t="n">
-        <v>-0.3194299630299486</v>
+        <v>-0.319429963029948</v>
       </c>
       <c r="D600" t="n">
         <v>-8.64690719566358</v>
@@ -11683,7 +11671,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C601" t="n">
-        <v>0.3714623445443396</v>
+        <v>0.3714623445443428</v>
       </c>
       <c r="D601" t="n">
         <v>0.3235640032755572</v>
@@ -11702,7 +11690,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C602" t="n">
-        <v>-0.003248224937284839</v>
+        <v>-0.003248224937285482</v>
       </c>
       <c r="D602" t="n">
         <v>0.1004992968819143</v>
@@ -11721,14 +11709,11 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C603" t="n">
-        <v>-0.2711435345308917</v>
+        <v>-0.2711435345308922</v>
       </c>
       <c r="D603" t="n">
         <v>-1.091262189229624</v>
       </c>
-      <c r="E603" t="n">
-        <v>-0.1301484602906239</v>
-      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -11740,7 +11725,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C604" t="n">
-        <v>-0.002277074456524535</v>
+        <v>-0.002277074456524054</v>
       </c>
       <c r="D604" t="n">
         <v>0.03855560615295292</v>
@@ -11759,7 +11744,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C605" t="n">
-        <v>0.5217711284447187</v>
+        <v>0.5217711284447161</v>
       </c>
       <c r="D605" t="n">
         <v>-0.09653269723640839</v>
@@ -11778,7 +11763,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C606" t="n">
-        <v>-0.1194320764846494</v>
+        <v>-0.1194320764846492</v>
       </c>
       <c r="D606" t="n">
         <v>-0.02462402308156136</v>
@@ -11797,7 +11782,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C607" t="n">
-        <v>-1.716409449562512</v>
+        <v>-1.71640944956251</v>
       </c>
       <c r="D607" t="n">
         <v>-0.1890458138470806</v>
@@ -11813,7 +11798,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C608" t="n">
-        <v>-0.912613430201239</v>
+        <v>-0.9126134302012393</v>
       </c>
       <c r="D608" t="n">
         <v>0.126651186794324</v>
@@ -11832,7 +11817,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C609" t="n">
-        <v>-0.07957493182002651</v>
+        <v>-0.07957493182002601</v>
       </c>
       <c r="D609" t="n">
         <v>-0.07622169432025383</v>
@@ -11851,7 +11836,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C610" t="n">
-        <v>-0.036540153278521</v>
+        <v>-0.03654015327852084</v>
       </c>
       <c r="D610" t="n">
         <v>-0.2292907202069103</v>
@@ -11870,7 +11855,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C611" t="n">
-        <v>-0.01304800916046896</v>
+        <v>-0.01304800916046928</v>
       </c>
       <c r="D611" t="n">
         <v>-0.09060968409333793</v>
@@ -11889,7 +11874,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C612" t="n">
-        <v>-0.08438618142520228</v>
+        <v>-0.08438618142520261</v>
       </c>
       <c r="D612" t="n">
         <v>-0.04570671080389714</v>
@@ -11965,7 +11950,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C616" t="n">
-        <v>-0.1399021321284006</v>
+        <v>-0.1399021321284007</v>
       </c>
       <c r="D616" t="n">
         <v>0.1007937838469521</v>
@@ -11984,7 +11969,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C617" t="n">
-        <v>0.14764924502747</v>
+        <v>0.1476492450274639</v>
       </c>
       <c r="D617" t="n">
         <v>-0.121748571552305</v>
@@ -12003,7 +11988,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C618" t="n">
-        <v>-0.1581195386924388</v>
+        <v>-0.1581195386924386</v>
       </c>
       <c r="D618" t="n">
         <v>0.2081462343544597</v>
@@ -12022,7 +12007,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C619" t="n">
-        <v>0.590502617653108</v>
+        <v>0.5905026176531059</v>
       </c>
       <c r="D619" t="n">
         <v>0.08453849476131846</v>
@@ -12041,7 +12026,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C620" t="n">
-        <v>-0.01964274343540484</v>
+        <v>-0.01964274343540516</v>
       </c>
       <c r="E620" t="n">
         <v>-0.003988789618813255</v>
@@ -12095,7 +12080,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C623" t="n">
-        <v>0.02604440871482695</v>
+        <v>0.02604440871482601</v>
       </c>
       <c r="D623" t="n">
         <v>-0.08202957715260041</v>
@@ -12114,7 +12099,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C624" t="n">
-        <v>0.3822771740908719</v>
+        <v>0.3822771740908758</v>
       </c>
       <c r="D624" t="n">
         <v>0.3211784093157142</v>
@@ -12133,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="C625" t="n">
-        <v>0.1975938877638319</v>
+        <v>0.1975938877638294</v>
       </c>
       <c r="D625" t="n">
         <v>0.1508871749072798</v>
@@ -12152,7 +12137,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C626" t="n">
-        <v>-0.1915100353283122</v>
+        <v>-0.1915100353283129</v>
       </c>
       <c r="D626" t="n">
         <v>-9.424272258597952</v>
@@ -12171,7 +12156,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C627" t="n">
-        <v>0.1082413941548991</v>
+        <v>0.1082413941548979</v>
       </c>
       <c r="E627" t="n">
         <v>-0.06582050955800353</v>
@@ -12187,7 +12172,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C628" t="n">
-        <v>0.1428374623975781</v>
+        <v>0.1428374623975792</v>
       </c>
       <c r="D628" t="n">
         <v>-0.6331344055567579</v>
@@ -12206,7 +12191,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C629" t="n">
-        <v>-0.193568402800081</v>
+        <v>-0.1935684028000815</v>
       </c>
       <c r="E629" t="n">
         <v>-0.1743322796697172</v>
@@ -12222,7 +12207,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C630" t="n">
-        <v>0.06121890398797887</v>
+        <v>0.06121890398797488</v>
       </c>
       <c r="D630" t="n">
         <v>-0.06849314381823371</v>
@@ -12241,7 +12226,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C631" t="n">
-        <v>-0.2638908588366185</v>
+        <v>-0.2638908588366177</v>
       </c>
       <c r="D631" t="n">
         <v>-1.19842780623184</v>
@@ -12260,7 +12245,7 @@
         <v>0</v>
       </c>
       <c r="C632" t="n">
-        <v>-0.05738048405758869</v>
+        <v>-0.05738048405758785</v>
       </c>
       <c r="D632" t="n">
         <v>-0.2050043403918548</v>
@@ -12279,7 +12264,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C633" t="n">
-        <v>-0.3129318844299059</v>
+        <v>-0.3129318844299062</v>
       </c>
       <c r="D633" t="n">
         <v>9.43009047409052</v>
@@ -12333,7 +12318,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C636" t="n">
-        <v>-0.7149421347240293</v>
+        <v>-0.714942134724029</v>
       </c>
       <c r="D636" t="n">
         <v>0.0649677475358823</v>
@@ -12352,7 +12337,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C637" t="n">
-        <v>0.186990327183793</v>
+        <v>0.1869903271837894</v>
       </c>
       <c r="D637" t="n">
         <v>0.5947688675852806</v>
@@ -12390,7 +12375,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C639" t="n">
-        <v>-0.1464259372708411</v>
+        <v>-0.1464259372708404</v>
       </c>
       <c r="D639" t="n">
         <v>0.4987040942325189</v>
@@ -12409,7 +12394,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C640" t="n">
-        <v>0.0442935874456845</v>
+        <v>0.04429358744568637</v>
       </c>
       <c r="D640" t="n">
         <v>-0.04284104221775114</v>
@@ -12447,7 +12432,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C642" t="n">
-        <v>0.03920209943496708</v>
+        <v>0.03920209943496614</v>
       </c>
       <c r="D642" t="n">
         <v>9.942579065838492</v>
@@ -12466,7 +12451,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C643" t="n">
-        <v>0.0246822876145774</v>
+        <v>0.02468228761457078</v>
       </c>
       <c r="D643" t="n">
         <v>0.4482366134365383</v>
@@ -12485,7 +12470,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C644" t="n">
-        <v>-0.1037102255540586</v>
+        <v>-0.1037102255540579</v>
       </c>
       <c r="D644" t="n">
         <v>-0.01522193704644079</v>
@@ -12504,7 +12489,7 @@
         <v>0</v>
       </c>
       <c r="C645" t="n">
-        <v>0.4830863890052385</v>
+        <v>0.4830863890052395</v>
       </c>
       <c r="D645" t="n">
         <v>0.3589351562635583</v>
@@ -12523,7 +12508,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C646" t="n">
-        <v>0.04209657722163265</v>
+        <v>0.04209657722163918</v>
       </c>
       <c r="D646" t="n">
         <v>7.830986694452882</v>
@@ -12561,7 +12546,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C648" t="n">
-        <v>-0.8572655034172808</v>
+        <v>-0.8572655034172803</v>
       </c>
       <c r="D648" t="n">
         <v>-0.4870985908656007</v>
@@ -12580,7 +12565,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C649" t="n">
-        <v>0.05612222295769872</v>
+        <v>0.0561222229576981</v>
       </c>
       <c r="D649" t="n">
         <v>0.07284841964277611</v>
@@ -12599,7 +12584,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C650" t="n">
-        <v>-0.1005624695859614</v>
+        <v>-0.1005624695859623</v>
       </c>
       <c r="D650" t="n">
         <v>-0.0851529519829088</v>
@@ -12618,7 +12603,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C651" t="n">
-        <v>-0.0562748344003858</v>
+        <v>-0.05627483440038614</v>
       </c>
       <c r="D651" t="n">
         <v>-0.06265762090421632</v>
@@ -12637,7 +12622,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C652" t="n">
-        <v>-0.1744700193384563</v>
+        <v>-0.174470019338457</v>
       </c>
       <c r="D652" t="n">
         <v>-0.07890734618501666</v>
@@ -12656,7 +12641,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C653" t="n">
-        <v>-0.03788485022089865</v>
+        <v>-0.03788485022089833</v>
       </c>
       <c r="D653" t="n">
         <v>-0.03632438637324026</v>
@@ -12675,7 +12660,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C654" t="n">
-        <v>0.9303105992254344</v>
+        <v>0.930310599225432</v>
       </c>
       <c r="D654" t="n">
         <v>0.5503578800800512</v>
@@ -12694,7 +12679,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C655" t="n">
-        <v>-0.08483746087019163</v>
+        <v>-0.08483746087019196</v>
       </c>
       <c r="D655" t="n">
         <v>-0.1983641946304882</v>
@@ -12713,7 +12698,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C656" t="n">
-        <v>0.0861930885112443</v>
+        <v>0.08619308851124309</v>
       </c>
       <c r="D656" t="n">
         <v>0.4448507096717884</v>
@@ -12732,7 +12717,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C657" t="n">
-        <v>0.0731821205620798</v>
+        <v>0.07318212056207432</v>
       </c>
       <c r="D657" t="n">
         <v>-0.2042198531345554</v>
@@ -12751,7 +12736,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C658" t="n">
-        <v>0.04734321513682937</v>
+        <v>0.04734321513683526</v>
       </c>
       <c r="D658" t="n">
         <v>0.07394518903353178</v>
@@ -12770,7 +12755,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C659" t="n">
-        <v>0.05558282673955377</v>
+        <v>0.05558282673955223</v>
       </c>
       <c r="D659" t="n">
         <v>0.3032245381000579</v>
@@ -12789,7 +12774,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C660" t="n">
-        <v>-0.1707648655695847</v>
+        <v>-0.1707648655695854</v>
       </c>
       <c r="D660" t="n">
         <v>0.6272977447719701</v>
@@ -12827,7 +12812,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C662" t="n">
-        <v>-0.05500581036991996</v>
+        <v>-0.05500581036992046</v>
       </c>
       <c r="D662" t="n">
         <v>1.427511872008982</v>
@@ -12846,7 +12831,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C663" t="n">
-        <v>0.1863428701797708</v>
+        <v>0.1863428701797697</v>
       </c>
       <c r="D663" t="n">
         <v>-0.4809892437849773</v>
@@ -12865,7 +12850,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C664" t="n">
-        <v>-0.1135305097419601</v>
+        <v>-0.1135305097419597</v>
       </c>
       <c r="D664" t="n">
         <v>-0.06591915357252348</v>
@@ -12884,7 +12869,7 @@
         <v>-0.4150374992788438</v>
       </c>
       <c r="C665" t="n">
-        <v>-0.4408846157069449</v>
+        <v>-0.4408846157069455</v>
       </c>
       <c r="D665" t="n">
         <v>-0.4330374957026794</v>
@@ -12903,7 +12888,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C666" t="n">
-        <v>0.03917996442667111</v>
+        <v>0.03917996442667702</v>
       </c>
       <c r="E666" t="n">
         <v>0.04200355628597216</v>
@@ -12919,7 +12904,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C667" t="n">
-        <v>-0.1161663480950354</v>
+        <v>-0.1161663480950345</v>
       </c>
       <c r="E667" t="n">
         <v>-0.05454342237297896</v>
@@ -12935,7 +12920,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C668" t="n">
-        <v>0.001402407803059479</v>
+        <v>0.001402407803058519</v>
       </c>
       <c r="D668" t="n">
         <v>-7.88732975017866</v>
@@ -12954,7 +12939,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C669" t="n">
-        <v>0.08342411724770871</v>
+        <v>0.08342411724770719</v>
       </c>
       <c r="D669" t="n">
         <v>0.02818618567639053</v>
@@ -12973,7 +12958,7 @@
         <v>0</v>
       </c>
       <c r="C670" t="n">
-        <v>0.01276248064137678</v>
+        <v>0.01276248064137202</v>
       </c>
       <c r="D670" t="n">
         <v>0.169042124105551</v>
@@ -12992,7 +12977,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C671" t="n">
-        <v>3.942183266958939</v>
+        <v>3.94218326695894</v>
       </c>
       <c r="D671" t="n">
         <v>-0.03754134148135126</v>
@@ -13011,7 +12996,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C672" t="n">
-        <v>-0.1203986259638107</v>
+        <v>-0.1203986259638104</v>
       </c>
       <c r="D672" t="n">
         <v>-0.3289443337898416</v>
@@ -13030,7 +13015,7 @@
         <v>-0.2009126939259964</v>
       </c>
       <c r="C673" t="n">
-        <v>-0.2215960122403807</v>
+        <v>-0.2215960122403814</v>
       </c>
       <c r="D673" t="n">
         <v>-0.01050427936166705</v>
@@ -13049,7 +13034,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C674" t="n">
-        <v>0.4583132007809813</v>
+        <v>0.4583132007809826</v>
       </c>
       <c r="D674" t="n">
         <v>0.28958812246185</v>
@@ -13068,7 +13053,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C675" t="n">
-        <v>-1.21626206271143</v>
+        <v>-1.216262062711429</v>
       </c>
       <c r="D675" t="n">
         <v>-0.1303938750072803</v>
@@ -13125,7 +13110,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C678" t="n">
-        <v>-0.08636546917863681</v>
+        <v>-0.08636546917863749</v>
       </c>
       <c r="D678" t="n">
         <v>-0.04050959509283041</v>
@@ -13163,7 +13148,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C680" t="n">
-        <v>-0.09371752088670665</v>
+        <v>-0.0937175208867063</v>
       </c>
       <c r="D680" t="n">
         <v>-10.02372874946994</v>
@@ -13182,7 +13167,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C681" t="n">
-        <v>-0.2928810282409866</v>
+        <v>-0.2928810282409874</v>
       </c>
       <c r="E681" t="n">
         <v>-0.0967882378113121</v>
@@ -13217,7 +13202,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C683" t="n">
-        <v>-0.3163508925597864</v>
+        <v>-0.3163508925597867</v>
       </c>
       <c r="D683" t="n">
         <v>0.08586544108866227</v>
@@ -13236,7 +13221,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C684" t="n">
-        <v>0.04406069472481045</v>
+        <v>0.04406069472480858</v>
       </c>
       <c r="D684" t="n">
         <v>0.1174870756264337</v>
@@ -13274,7 +13259,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C686" t="n">
-        <v>-3.43182930937986</v>
+        <v>-3.431829309379858</v>
       </c>
       <c r="D686" t="n">
         <v>-1.178357911967171</v>
@@ -13293,7 +13278,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C687" t="n">
-        <v>-0.07726745403622347</v>
+        <v>-0.07726745403622413</v>
       </c>
       <c r="D687" t="n">
         <v>4.170209858220362</v>
@@ -13312,7 +13297,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C688" t="n">
-        <v>-0.03108116693609735</v>
+        <v>-0.03108116693609703</v>
       </c>
       <c r="D688" t="n">
         <v>-0.09281629247513018</v>
@@ -13331,7 +13316,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C689" t="n">
-        <v>0.003159808445611624</v>
+        <v>0.003159808445607469</v>
       </c>
       <c r="D689" t="n">
         <v>0.1246069287662351</v>
@@ -13350,7 +13335,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C690" t="n">
-        <v>-0.05792109842674205</v>
+        <v>-0.05792109842674172</v>
       </c>
       <c r="D690" t="n">
         <v>0.8121641241123282</v>
@@ -13404,7 +13389,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C693" t="n">
-        <v>0.1121169434437271</v>
+        <v>0.1121169434437253</v>
       </c>
       <c r="D693" t="n">
         <v>0.09264736661414803</v>
@@ -13423,7 +13408,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C694" t="n">
-        <v>0.124651927106912</v>
+        <v>0.1246519271069131</v>
       </c>
       <c r="D694" t="n">
         <v>0.1615295089116485</v>
@@ -13442,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="C695" t="n">
-        <v>0.2909832445318102</v>
+        <v>0.2909832445318105</v>
       </c>
       <c r="D695" t="n">
         <v>-0.2867169184933239</v>
@@ -13461,7 +13446,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C696" t="n">
-        <v>0.04325911419477417</v>
+        <v>0.04325911419477262</v>
       </c>
       <c r="D696" t="n">
         <v>0.04212532681703286</v>
@@ -13480,7 +13465,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C697" t="n">
-        <v>0.01686219709484429</v>
+        <v>0.01686219709483764</v>
       </c>
       <c r="D697" t="n">
         <v>-0.05939685112138143</v>
@@ -13499,7 +13484,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C698" t="n">
-        <v>-3.990449402498004</v>
+        <v>-3.990449402498002</v>
       </c>
       <c r="D698" t="n">
         <v>-9.077203949890668</v>
@@ -13518,7 +13503,7 @@
         <v>-0.4150374992788438</v>
       </c>
       <c r="C699" t="n">
-        <v>-0.4629023400667612</v>
+        <v>-0.4629023400667603</v>
       </c>
       <c r="D699" t="n">
         <v>-0.4752309409487464</v>
@@ -13537,7 +13522,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C700" t="n">
-        <v>-0.04390699274522385</v>
+        <v>-0.04390699274522352</v>
       </c>
       <c r="E700" t="n">
         <v>-0.06515601366965086</v>
@@ -13553,7 +13538,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C701" t="n">
-        <v>-0.0363175845928832</v>
+        <v>-0.03631758459288386</v>
       </c>
       <c r="D701" t="n">
         <v>-0.03069630570288951</v>
@@ -13572,7 +13557,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C702" t="n">
-        <v>-0.6285577314838003</v>
+        <v>-0.6285577314838011</v>
       </c>
       <c r="D702" t="n">
         <v>-12.60282950236722</v>
@@ -13591,7 +13576,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C703" t="n">
-        <v>0.02566438166848486</v>
+        <v>0.02566438166849179</v>
       </c>
       <c r="D703" t="n">
         <v>0.3107694431748251</v>
@@ -13610,7 +13595,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C704" t="n">
-        <v>0.02407453857459001</v>
+        <v>0.02407453857459064</v>
       </c>
       <c r="D704" t="n">
         <v>0.1719566401971039</v>
@@ -13648,7 +13633,7 @@
         <v>0.4750848829487826</v>
       </c>
       <c r="C706" t="n">
-        <v>0.276740945319507</v>
+        <v>0.2767409453195033</v>
       </c>
       <c r="D706" t="n">
         <v>0.7054506159919369</v>
@@ -13667,7 +13652,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C707" t="n">
-        <v>-0.1763404311945657</v>
+        <v>-0.1763404311945664</v>
       </c>
       <c r="D707" t="n">
         <v>-0.2190710132603131</v>
@@ -13686,7 +13671,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C708" t="n">
-        <v>-2.574939690087008</v>
+        <v>-2.574939690087004</v>
       </c>
       <c r="D708" t="n">
         <v>-0.1546642732459036</v>
@@ -13705,7 +13690,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C709" t="n">
-        <v>-0.05408901302789099</v>
+        <v>-0.05408901302789165</v>
       </c>
       <c r="D709" t="n">
         <v>0.05105474424605671</v>
@@ -13724,7 +13709,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C710" t="n">
-        <v>-0.0605779373245225</v>
+        <v>-0.06057793732452283</v>
       </c>
       <c r="D710" t="n">
         <v>0.04352118202525708</v>
@@ -13743,7 +13728,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C711" t="n">
-        <v>-0.1917349324486485</v>
+        <v>-0.1917349324486487</v>
       </c>
       <c r="D711" t="n">
         <v>-0.1376842067655568</v>
@@ -13781,7 +13766,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C713" t="n">
-        <v>0.6356466468508043</v>
+        <v>0.6356466468508053</v>
       </c>
       <c r="D713" t="n">
         <v>-0.5043685774803047</v>
@@ -13800,7 +13785,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C714" t="n">
-        <v>0.05468713258294696</v>
+        <v>0.05468713258294264</v>
       </c>
       <c r="D714" t="n">
         <v>0.9581077144034174</v>
@@ -13838,7 +13823,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C716" t="n">
-        <v>0.1508101122775406</v>
+        <v>0.1508101122775394</v>
       </c>
       <c r="D716" t="n">
         <v>8.212800815709981</v>
@@ -13857,7 +13842,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C717" t="n">
-        <v>-0.1249074632592261</v>
+        <v>-0.1249074632592265</v>
       </c>
       <c r="D717" t="n">
         <v>0.1591482311325073</v>
@@ -13876,7 +13861,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C718" t="n">
-        <v>0.07288277675741099</v>
+        <v>0.07288277675741404</v>
       </c>
       <c r="D718" t="n">
         <v>0.1428325880849691</v>
@@ -13895,7 +13880,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C719" t="n">
-        <v>-3.751575744146976</v>
+        <v>-3.751575744146975</v>
       </c>
       <c r="D719" t="n">
         <v>-0.09493586593777963</v>
@@ -13914,7 +13899,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C720" t="n">
-        <v>-0.9436980920360507</v>
+        <v>-0.9436980920360495</v>
       </c>
       <c r="D720" t="n">
         <v>-0.3708172187706442</v>
@@ -13933,7 +13918,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C721" t="n">
-        <v>0.1457668347810749</v>
+        <v>0.1457668347810775</v>
       </c>
       <c r="D721" t="n">
         <v>-0.3413563696492207</v>
@@ -13952,7 +13937,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C722" t="n">
-        <v>-0.04378786854443527</v>
+        <v>-0.04378786854443559</v>
       </c>
       <c r="E722" t="n">
         <v>-0.04232238277927911</v>
@@ -13968,7 +13953,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C723" t="n">
-        <v>-0.05478827375331128</v>
+        <v>-0.05478827375331095</v>
       </c>
       <c r="D723" t="n">
         <v>0.2761632174222206</v>
@@ -13987,7 +13972,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C724" t="n">
-        <v>-0.08034319284528577</v>
+        <v>-0.08034319284528645</v>
       </c>
       <c r="D724" t="n">
         <v>-0.1128432378353541</v>
@@ -14006,7 +13991,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C725" t="n">
-        <v>0.2857159915808054</v>
+        <v>0.285715991580806</v>
       </c>
       <c r="D725" t="n">
         <v>-0.4183664670657104</v>
@@ -14025,7 +14010,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C726" t="n">
-        <v>-0.1598452192794859</v>
+        <v>-0.1598452192794857</v>
       </c>
       <c r="E726" t="n">
         <v>0.116651275314841</v>
@@ -14041,7 +14026,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C727" t="n">
-        <v>0.3501421221491982</v>
+        <v>0.350142122149199</v>
       </c>
       <c r="D727" t="n">
         <v>0.6833231596729675</v>
@@ -14060,7 +14045,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C728" t="n">
-        <v>0.001797751062394156</v>
+        <v>0.001797751062397996</v>
       </c>
       <c r="D728" t="n">
         <v>-0.2092062551859427</v>
@@ -14079,7 +14064,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C729" t="n">
-        <v>0.01810311369421115</v>
+        <v>0.01810311369421368</v>
       </c>
       <c r="D729" t="n">
         <v>0.02255558576945579</v>
@@ -14098,7 +14083,7 @@
         <v>0</v>
       </c>
       <c r="C730" t="n">
-        <v>0.2265672863302964</v>
+        <v>0.2265672863302955</v>
       </c>
       <c r="D730" t="n">
         <v>0.1208044824062062</v>
@@ -14117,7 +14102,7 @@
         <v>-0.3400754415976217</v>
       </c>
       <c r="C731" t="n">
-        <v>-0.1469943465373783</v>
+        <v>-0.1469943465373792</v>
       </c>
       <c r="D731" t="n">
         <v>0.4921824649019182</v>
@@ -14152,7 +14137,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C733" t="n">
-        <v>0.598669255690681</v>
+        <v>0.5986692556906854</v>
       </c>
       <c r="D733" t="n">
         <v>0.4144467284699423</v>
@@ -14190,7 +14175,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C735" t="n">
-        <v>0.7969673270940849</v>
+        <v>0.7969673270940827</v>
       </c>
       <c r="D735" t="n">
         <v>0.2038310003355249</v>
@@ -14209,7 +14194,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C736" t="n">
-        <v>0.03690359953062909</v>
+        <v>0.03690359953062628</v>
       </c>
       <c r="D736" t="n">
         <v>-0.5115556135033154</v>
@@ -14228,7 +14213,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C737" t="n">
-        <v>-0.01943275553160655</v>
+        <v>-0.01943275553160606</v>
       </c>
       <c r="D737" t="n">
         <v>0.5725421446108248</v>
@@ -14247,7 +14232,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C738" t="n">
-        <v>-0.1057029986655526</v>
+        <v>-0.1057029986655523</v>
       </c>
       <c r="D738" t="n">
         <v>9.005611210284359</v>
@@ -14266,7 +14251,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C739" t="n">
-        <v>0.04221206639578208</v>
+        <v>0.04221206639578021</v>
       </c>
       <c r="D739" t="n">
         <v>-0.08611987757240282</v>
@@ -14285,7 +14270,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C740" t="n">
-        <v>-0.1056633606589197</v>
+        <v>-0.1056633606589204</v>
       </c>
       <c r="D740" t="n">
         <v>-0.2249942592673275</v>
@@ -14304,7 +14289,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C741" t="n">
-        <v>-0.06419758217083033</v>
+        <v>-0.06419758217083067</v>
       </c>
       <c r="D741" t="n">
         <v>-3.872750394901006</v>
@@ -14323,7 +14308,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C742" t="n">
-        <v>0.05476148513244811</v>
+        <v>0.05476148513244749</v>
       </c>
       <c r="D742" t="n">
         <v>0.09351441541439801</v>
@@ -14358,7 +14343,7 @@
         <v>-0.2688167584278</v>
       </c>
       <c r="C744" t="n">
-        <v>-0.1840554302051022</v>
+        <v>-0.1840554302051025</v>
       </c>
       <c r="D744" t="n">
         <v>-0.1452685924288399</v>
@@ -14377,7 +14362,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C745" t="n">
-        <v>-0.02046590570425051</v>
+        <v>-0.02046590570425116</v>
       </c>
       <c r="D745" t="n">
         <v>-0.1049333015331574</v>
@@ -14396,7 +14381,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C746" t="n">
-        <v>-1.991324191414478</v>
+        <v>-1.991324191414475</v>
       </c>
       <c r="D746" t="n">
         <v>0.02860617907741481</v>
@@ -14415,7 +14400,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C747" t="n">
-        <v>-0.04303904410266306</v>
+        <v>-0.04303904410266273</v>
       </c>
       <c r="D747" t="n">
         <v>-0.1992273165360605</v>
@@ -14434,7 +14419,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C748" t="n">
-        <v>-0.5158194630816936</v>
+        <v>-0.5158194630816938</v>
       </c>
       <c r="D748" t="n">
         <v>-0.245456901237814</v>
@@ -14453,7 +14438,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C749" t="n">
-        <v>-0.02688005836517458</v>
+        <v>-0.02688005836517474</v>
       </c>
       <c r="D749" t="n">
         <v>0.1272874727579383</v>
@@ -14472,7 +14457,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C750" t="n">
-        <v>-0.1459016039492918</v>
+        <v>-0.1459016039492922</v>
       </c>
       <c r="D750" t="n">
         <v>-0.5938154471081449</v>
@@ -14491,7 +14476,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C751" t="n">
-        <v>0.1625212335721947</v>
+        <v>0.1625212335721941</v>
       </c>
       <c r="D751" t="n">
         <v>0.4599319525352288</v>
@@ -14510,7 +14495,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C752" t="n">
-        <v>-0.1078172518361476</v>
+        <v>-0.1078172518361477</v>
       </c>
       <c r="D752" t="n">
         <v>-0.07352555358526634</v>
@@ -14529,7 +14514,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C753" t="n">
-        <v>0.630788210562246</v>
+        <v>0.6307882105622489</v>
       </c>
       <c r="D753" t="n">
         <v>0.4224420060857456</v>
@@ -14567,7 +14552,7 @@
         <v>-0.5145731728297583</v>
       </c>
       <c r="C755" t="n">
-        <v>-0.3850099830051603</v>
+        <v>-0.3850099830051594</v>
       </c>
       <c r="D755" t="n">
         <v>-0.9675603452417301</v>
@@ -14586,7 +14571,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C756" t="n">
-        <v>0.09440288706361941</v>
+        <v>0.0944028870636158</v>
       </c>
       <c r="D756" t="n">
         <v>0.08657397285168308</v>
@@ -14605,7 +14590,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C757" t="n">
-        <v>-0.1113623548247033</v>
+        <v>-0.1113623548247035</v>
       </c>
       <c r="D757" t="n">
         <v>-0.01245028454413861</v>
@@ -14643,7 +14628,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C759" t="n">
-        <v>0.1834694156985319</v>
+        <v>0.18346941569853</v>
       </c>
       <c r="D759" t="n">
         <v>-0.07941377883323057</v>
@@ -14662,7 +14647,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C760" t="n">
-        <v>-0.06395135790721201</v>
+        <v>-0.06395135790721251</v>
       </c>
       <c r="D760" t="n">
         <v>-0.09625587007166593</v>
@@ -14681,7 +14666,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C761" t="n">
-        <v>0.1340121047726933</v>
+        <v>0.1340121047726976</v>
       </c>
       <c r="D761" t="n">
         <v>-0.1594762944569033</v>
@@ -14941,7 +14926,7 @@
         <v>-1.251538766995965</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.464545829000676</v>
+        <v>-1.464545829000677</v>
       </c>
       <c r="D2" t="n">
         <v>-1.853536489157448</v>
@@ -14979,7 +14964,7 @@
         <v>-0.888968687611256</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6675051661064766</v>
+        <v>-0.6675051661064758</v>
       </c>
       <c r="D4" t="n">
         <v>-0.1040075470318585</v>
@@ -14998,7 +14983,7 @@
         <v>-1.120294233717712</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.163460949765366</v>
+        <v>-1.163460949765364</v>
       </c>
       <c r="D5" t="n">
         <v>-1.512924288403289</v>
@@ -15017,7 +15002,7 @@
         <v>-0.9714308478032291</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9116459554687731</v>
+        <v>-0.9116459554687719</v>
       </c>
       <c r="D6" t="n">
         <v>-0.1492527923159651</v>
@@ -15055,7 +15040,7 @@
         <v>-0.862496476250065</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.00828815516262</v>
+        <v>-1.008288155162621</v>
       </c>
       <c r="D8" t="n">
         <v>-1.095562445510099</v>
@@ -15093,7 +15078,7 @@
         <v>-1.089267338097087</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.9925524060737491</v>
+        <v>-0.9925524060737493</v>
       </c>
       <c r="D10" t="n">
         <v>-1.04962594754506</v>
@@ -15112,7 +15097,7 @@
         <v>-0.8109661756099832</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.138275016124824</v>
+        <v>-2.138275016124821</v>
       </c>
       <c r="D11" t="n">
         <v>-0.5462875000322195</v>
@@ -15147,7 +15132,7 @@
         <v>-1.286304185156641</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.299682239257086</v>
+        <v>-1.299682239257087</v>
       </c>
       <c r="D13" t="n">
         <v>-1.267966307408118</v>
@@ -15166,7 +15151,7 @@
         <v>-0.9159357352115255</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.8016863057462804</v>
+        <v>-0.8016863057462815</v>
       </c>
       <c r="D14" t="n">
         <v>-1.019266306784637</v>
@@ -15185,7 +15170,7 @@
         <v>-1.15200309344505</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.28188337599196</v>
+        <v>-1.281883375991961</v>
       </c>
       <c r="D15" t="n">
         <v>-0.898937163415253</v>
@@ -15204,7 +15189,7 @@
         <v>-0.862496476250065</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.801454593850468</v>
+        <v>-2.801454593850465</v>
       </c>
       <c r="D16" t="n">
         <v>-0.9769556681440626</v>
@@ -15261,7 +15246,7 @@
         <v>-0.862496476250065</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.907640930829865</v>
+        <v>-0.9076409308298656</v>
       </c>
       <c r="D19" t="n">
         <v>-1.199961894338049</v>
@@ -15326,7 +15311,7 @@
         <v>-1.888968687611256</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.350169810945666</v>
+        <v>-5.350169810945661</v>
       </c>
       <c r="D2" t="n">
         <v>-1.982302157428584</v>
@@ -15345,7 +15330,7 @@
         <v>-1.943416471633632</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.172131757036936</v>
+        <v>-2.172131757036939</v>
       </c>
       <c r="E3" t="n">
         <v>-2.085339659559094</v>
@@ -15361,7 +15346,7 @@
         <v>-2.184424571137427</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.5918471383087</v>
+        <v>-2.591847138308701</v>
       </c>
       <c r="E4" t="n">
         <v>-2.497093165027167</v>
@@ -15396,7 +15381,7 @@
         <v>-3.058893689053569</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.735469939213932</v>
+        <v>-3.73546993921393</v>
       </c>
       <c r="D6" t="n">
         <v>-4.613406391204889</v>
@@ -15434,7 +15419,7 @@
         <v>-2.120294233717712</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.384258750574226</v>
+        <v>-2.384258750574224</v>
       </c>
       <c r="D8" t="n">
         <v>-2.009373375275548</v>
@@ -15453,7 +15438,7 @@
         <v>-2.184424571137427</v>
       </c>
       <c r="C9" t="n">
-        <v>3.899600890431944</v>
+        <v>3.899600890431945</v>
       </c>
       <c r="D9" t="n">
         <v>5.006411105645703</v>
@@ -15472,7 +15457,7 @@
         <v>-2.058893689053569</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.953532427951828</v>
+        <v>-1.953532427951827</v>
       </c>
       <c r="D10" t="n">
         <v>-1.819196392389063</v>
@@ -15491,7 +15476,7 @@
         <v>-2.251538766995965</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.287157646312781</v>
+        <v>-2.287157646312779</v>
       </c>
       <c r="D11" t="n">
         <v>-1.370119816857285</v>
@@ -15510,7 +15495,7 @@
         <v>-2.120294233717712</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.454524389038954</v>
+        <v>-1.454524389038953</v>
       </c>
       <c r="D12" t="n">
         <v>-1.254394184572392</v>
@@ -15529,7 +15514,7 @@
         <v>-1.943416471633632</v>
       </c>
       <c r="C13" t="n">
-        <v>-6.171369520316158</v>
+        <v>-6.171369520316148</v>
       </c>
       <c r="D13" t="n">
         <v>-2.869344748207176</v>
@@ -15629,7 +15614,7 @@
         <v>4.074676686294496</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4278689108077194</v>
+        <v>0.4278689108077189</v>
       </c>
       <c r="D2" t="n">
         <v>3.927962341369192</v>
@@ -15648,7 +15633,7 @@
         <v>3.921245888585589</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4417165074580463</v>
+        <v>0.4417165074580506</v>
       </c>
       <c r="D3" t="n">
         <v>-5.989697025233355</v>
@@ -15667,7 +15652,7 @@
         <v>3.864928972289788</v>
       </c>
       <c r="C4" t="n">
-        <v>5.577362241148824</v>
+        <v>5.577362241148825</v>
       </c>
       <c r="D4" t="n">
         <v>7.831339965055634</v>
@@ -15686,7 +15671,7 @@
         <v>3.654206377944292</v>
       </c>
       <c r="C5" t="n">
-        <v>3.909260773862819</v>
+        <v>3.909260773862822</v>
       </c>
       <c r="D5" t="n">
         <v>3.856932165715919</v>
@@ -15705,7 +15690,7 @@
         <v>3.203201156316611</v>
       </c>
       <c r="C6" t="n">
-        <v>3.599383344982878</v>
+        <v>3.599383344982884</v>
       </c>
       <c r="D6" t="n">
         <v>3.646242749172149</v>
@@ -15743,7 +15728,7 @@
         <v>3.907852071845964</v>
       </c>
       <c r="C8" t="n">
-        <v>3.878710782245817</v>
+        <v>3.878710782245816</v>
       </c>
       <c r="D8" t="n">
         <v>4.15931828251684</v>
@@ -15762,7 +15747,7 @@
         <v>3.283921772307617</v>
       </c>
       <c r="C9" t="n">
-        <v>3.814370558228927</v>
+        <v>3.814370558228922</v>
       </c>
       <c r="E9" t="n">
         <v>3.806414708524982</v>
@@ -15778,7 +15763,7 @@
         <v>4.489286022625876</v>
       </c>
       <c r="C10" t="n">
-        <v>4.556645474900569</v>
+        <v>4.556645474900568</v>
       </c>
       <c r="D10" t="n">
         <v>9.737599214893397</v>
@@ -15843,7 +15828,7 @@
         <v>0.8318772411916731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8069838451544126</v>
+        <v>0.806983845154416</v>
       </c>
       <c r="D2" t="n">
         <v>0.2020056554158581</v>
@@ -15862,7 +15847,7 @@
         <v>1.207892851641333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03101540932962692</v>
+        <v>0.0310154093296219</v>
       </c>
       <c r="D3" t="n">
         <v>0.07585648993541404</v>
@@ -15897,7 +15882,7 @@
         <v>0.7907720378619999</v>
       </c>
       <c r="C5" t="n">
-        <v>1.048986622825951</v>
+        <v>1.048986622825947</v>
       </c>
       <c r="D5" t="n">
         <v>1.009402829088603</v>
@@ -15916,7 +15901,7 @@
         <v>0.7570232465074596</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9389566333651483</v>
+        <v>0.9389566333651461</v>
       </c>
       <c r="D6" t="n">
         <v>1.105630089659461</v>
@@ -15935,7 +15920,7 @@
         <v>0.4854268271702417</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3332158137147935</v>
+        <v>0.3332158137147985</v>
       </c>
       <c r="D7" t="n">
         <v>0.4681354356646378</v>
@@ -15954,7 +15939,7 @@
         <v>0.8073549220576041</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4106658910923447</v>
+        <v>0.4106658910923433</v>
       </c>
       <c r="D8" t="n">
         <v>0.7122195560960058</v>
@@ -15973,7 +15958,7 @@
         <v>0.8718436485093178</v>
       </c>
       <c r="C9" t="n">
-        <v>1.105188045753938</v>
+        <v>1.105188045753936</v>
       </c>
       <c r="D9" t="n">
         <v>0.8410209393837339</v>
@@ -15992,7 +15977,7 @@
         <v>1.01435529297707</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1363841822065727</v>
+        <v>0.1363841822065669</v>
       </c>
       <c r="D10" t="n">
         <v>-1.87959446984636</v>
@@ -16030,7 +16015,7 @@
         <v>0.903038270112912</v>
       </c>
       <c r="C12" t="n">
-        <v>0.981862003982706</v>
+        <v>0.9818620039827042</v>
       </c>
       <c r="D12" t="n">
         <v>0.7376165322197519</v>
@@ -16049,7 +16034,7 @@
         <v>0.9927684307689242</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8469756348722449</v>
+        <v>0.8469756348722417</v>
       </c>
       <c r="D13" t="n">
         <v>9.465595522998472</v>
@@ -16068,7 +16053,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1.166025443398159</v>
+        <v>1.166025443398157</v>
       </c>
       <c r="D14" t="n">
         <v>0.5536080486952212</v>
@@ -16087,7 +16072,7 @@
         <v>0.7570232465074596</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8938503189933352</v>
+        <v>0.8938503189933371</v>
       </c>
       <c r="D15" t="n">
         <v>0.8650521101438264</v>
@@ -16106,7 +16091,7 @@
         <v>1.021479727410451</v>
       </c>
       <c r="C16" t="n">
-        <v>1.028998254500401</v>
+        <v>1.028998254500404</v>
       </c>
       <c r="D16" t="n">
         <v>0.8056413419708771</v>
@@ -16125,7 +16110,7 @@
         <v>1.144046369616707</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9746201544874171</v>
+        <v>0.9746201544874192</v>
       </c>
       <c r="D17" t="n">
         <v>0.8921241322268434</v>
@@ -16209,7 +16194,7 @@
         <v>1.778208576398088</v>
       </c>
       <c r="C3" t="n">
-        <v>1.953403168230364</v>
+        <v>1.953403168230365</v>
       </c>
       <c r="D3" t="n">
         <v>2.07975732013575</v>
@@ -16228,7 +16213,7 @@
         <v>2.163498732282879</v>
       </c>
       <c r="C4" t="n">
-        <v>2.126077093856058</v>
+        <v>2.126077093856059</v>
       </c>
       <c r="D4" t="n">
         <v>2.091306327872934</v>
@@ -16266,7 +16251,7 @@
         <v>2.100977647724821</v>
       </c>
       <c r="C6" t="n">
-        <v>2.135018153857064</v>
+        <v>2.135018153857062</v>
       </c>
       <c r="D6" t="n">
         <v>2.127911221444454</v>
@@ -16285,7 +16270,7 @@
         <v>2.042644337408494</v>
       </c>
       <c r="C7" t="n">
-        <v>2.151725042029814</v>
+        <v>2.151725042029815</v>
       </c>
       <c r="E7" t="n">
         <v>2.047638544649727</v>
@@ -16301,7 +16286,7 @@
         <v>1.541019153133559</v>
       </c>
       <c r="C8" t="n">
-        <v>1.617096996988206</v>
+        <v>1.617096996988205</v>
       </c>
       <c r="E8" t="n">
         <v>1.568556384548101</v>
@@ -16317,7 +16302,7 @@
         <v>1.879705766282288</v>
       </c>
       <c r="C9" t="n">
-        <v>2.734727589417826</v>
+        <v>2.734727589417827</v>
       </c>
       <c r="D9" t="n">
         <v>1.774569655709081</v>
@@ -16336,7 +16321,7 @@
         <v>2.007195501404204</v>
       </c>
       <c r="C10" t="n">
-        <v>2.039416153325502</v>
+        <v>2.039416153325504</v>
       </c>
       <c r="D10" t="n">
         <v>1.885370358424846</v>
@@ -16355,7 +16340,7 @@
         <v>1.879705766282288</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.205271301645812</v>
+        <v>-3.205271301645808</v>
       </c>
       <c r="D11" t="n">
         <v>1.082639105887337</v>
@@ -16374,7 +16359,7 @@
         <v>1.769771739249448</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.317007395312332</v>
+        <v>-3.317007395312329</v>
       </c>
       <c r="D12" t="n">
         <v>1.393684068218043</v>
